--- a/out_test/tables/Fexp0.25_gray/Fexp0.25_gray_30.xlsx
+++ b/out_test/tables/Fexp0.25_gray/Fexp0.25_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2111,1066 +2283,1138 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>12.87129965752215</v>
+        <v>12.8391615976917</v>
       </c>
       <c r="E3">
-        <v>12.87129965752215</v>
+        <v>12.8391615976917</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0.6414634146341464</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="K3">
         <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3">
-        <v>0.3585365853658539</v>
+        <v>0.3615384615384616</v>
       </c>
       <c r="P3">
-        <v>-0.3445781286098862</v>
+        <v>-0.3891656261169884</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R3">
-        <v>0.651509880742746</v>
+        <v>0.8283588062878896</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06441367701315673</v>
+        <v>0.02683165757495463</v>
       </c>
       <c r="U3">
-        <v>-0.3713545423786258</v>
+        <v>-0.2264604019189438</v>
       </c>
       <c r="V3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W3">
-        <v>2.688591635352109</v>
+        <v>3.418395673626436</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1219414264073413</v>
+        <v>0.1086578560152876</v>
       </c>
       <c r="Z3">
+        <v>1.6</v>
+      </c>
+      <c r="AA3">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>1.095265146360347</v>
+      </c>
+      <c r="AD3">
+        <v>39</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>39</v>
+      </c>
+      <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="AB3">
-        <v>21</v>
-      </c>
-      <c r="AC3">
-        <v>1.053024855042329</v>
-      </c>
-      <c r="AD3">
-        <v>41</v>
-      </c>
-      <c r="AE3">
-        <v>41</v>
-      </c>
-      <c r="AF3">
-        <v>21</v>
-      </c>
-      <c r="AG3">
-        <v>12.90351816301735</v>
-      </c>
       <c r="AH3">
-        <v>12.90351816301735</v>
+        <v>1</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>59</v>
+      </c>
+      <c r="AK3">
+        <v>9.703629589458101</v>
+      </c>
+      <c r="AL3">
+        <v>9.703629589458101</v>
+      </c>
+      <c r="AM3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AJ3">
+      <c r="AN3">
+        <v>4</v>
+      </c>
+      <c r="AO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AP3">
+        <v>42</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6454022988505748</v>
+      </c>
+      <c r="AR3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="AS3">
+        <v>42</v>
+      </c>
+      <c r="AT3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AU3">
+        <v>4</v>
+      </c>
+      <c r="AV3">
+        <v>0.3545977011494254</v>
+      </c>
+      <c r="AW3">
+        <v>-0.2909571869813053</v>
+      </c>
+      <c r="AX3">
+        <v>20</v>
+      </c>
+      <c r="AY3">
+        <v>0.6265879795363771</v>
+      </c>
+      <c r="AZ3">
         <v>0</v>
       </c>
-      <c r="AK3">
-        <v>0.8</v>
-      </c>
-      <c r="AL3">
-        <v>7</v>
-      </c>
-      <c r="AM3">
-        <v>0.6333333333333331</v>
-      </c>
-      <c r="AN3">
-        <v>0.2</v>
-      </c>
-      <c r="AO3">
-        <v>7</v>
-      </c>
-      <c r="AP3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="AS3">
-        <v>-0.222222222222225</v>
-      </c>
-      <c r="AT3">
-        <v>17</v>
-      </c>
-      <c r="AU3">
-        <v>0.7473146290607838</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>0.1508456339753836</v>
-      </c>
-      <c r="AX3">
-        <v>-0.1524037471754252</v>
-      </c>
-      <c r="AY3">
-        <v>17</v>
-      </c>
-      <c r="AZ3">
-        <v>2.362313251912058</v>
-      </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0.04719841030341715</v>
       </c>
       <c r="BB3">
-        <v>0.2542596380884007</v>
+        <v>-0.3097377052102068</v>
       </c>
       <c r="BC3">
         <v>3</v>
       </c>
       <c r="BD3">
-        <v>1.153846153846154</v>
+        <v>2.200512529508224</v>
       </c>
       <c r="BE3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.23635189928423</v>
+        <v>0.03051718435152912</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BJ3">
-        <v>12.90351816301735</v>
+        <v>0.985954631083388</v>
       </c>
       <c r="BK3">
-        <v>12.90351816301735</v>
+        <v>58</v>
       </c>
       <c r="BL3">
+        <v>56</v>
+      </c>
+      <c r="BM3">
+        <v>30.5</v>
+      </c>
+      <c r="BN3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="BO3">
+        <v>28.5</v>
+      </c>
+      <c r="BP3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="BQ3">
+        <v>10</v>
+      </c>
+      <c r="BR3">
+        <v>10.53812886169548</v>
+      </c>
+      <c r="BS3">
+        <v>10.53812886169548</v>
+      </c>
+      <c r="BT3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BO3">
-        <v>11</v>
-      </c>
-      <c r="BP3">
-        <v>0.6488888888888888</v>
-      </c>
-      <c r="BQ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BR3">
-        <v>11</v>
-      </c>
-      <c r="BS3">
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="BW3">
+        <v>6</v>
+      </c>
+      <c r="BX3">
+        <v>0.6185185185185185</v>
+      </c>
+      <c r="BY3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BZ3">
+        <v>6</v>
+      </c>
+      <c r="CA3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0.3511111111111112</v>
-      </c>
-      <c r="BV3">
-        <v>-0.09187575736282819</v>
-      </c>
-      <c r="BW3">
-        <v>10</v>
-      </c>
-      <c r="BX3">
-        <v>0.7070580085451941</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0.1673250938791887</v>
-      </c>
-      <c r="CA3">
-        <v>-0.1524126891776536</v>
-      </c>
       <c r="CB3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CC3">
-        <v>2.220431558163264</v>
+        <v>0.3814814814814815</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>-0.09898644013205754</v>
       </c>
       <c r="CE3">
-        <v>0.3475330715811472</v>
+        <v>4</v>
       </c>
       <c r="CF3">
-        <v>2</v>
+        <v>0.4888108716714299</v>
       </c>
       <c r="CG3">
-        <v>1.230769230769231</v>
+        <v>1</v>
       </c>
       <c r="CH3">
+        <v>0.2016394271209617</v>
+      </c>
+      <c r="CI3">
+        <v>-0.1461545018173069</v>
+      </c>
+      <c r="CJ3">
+        <v>4</v>
+      </c>
+      <c r="CK3">
+        <v>1.595416174697483</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>0.4178613102506272</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="CP3">
+        <v>5</v>
+      </c>
+      <c r="CQ3">
+        <v>0.9846013321716646</v>
+      </c>
+      <c r="CR3">
+        <v>9</v>
+      </c>
+      <c r="CS3">
+        <v>7</v>
+      </c>
+      <c r="CT3">
         <v>6</v>
       </c>
-      <c r="CI3">
-        <v>1.274077197148318</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>37</v>
-      </c>
-      <c r="CM3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="CN3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="CO3">
+      <c r="CU3">
+        <v>1.802775637731995</v>
+      </c>
+      <c r="CV3">
+        <v>4</v>
+      </c>
+      <c r="CW3">
+        <v>1.802775637731995</v>
+      </c>
+      <c r="CX3">
+        <v>68</v>
+      </c>
+      <c r="CY3">
+        <v>11.79292764889527</v>
+      </c>
+      <c r="CZ3">
+        <v>11.79292764889527</v>
+      </c>
+      <c r="DA3">
         <v>0.5</v>
       </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
+      <c r="DB3">
+        <v>14</v>
+      </c>
+      <c r="DC3">
         <v>0.8</v>
       </c>
-      <c r="CR3">
-        <v>28</v>
-      </c>
-      <c r="CS3">
-        <v>0.650925925925926</v>
-      </c>
-      <c r="CT3">
+      <c r="DD3">
+        <v>29</v>
+      </c>
+      <c r="DE3">
+        <v>0.6323383084577118</v>
+      </c>
+      <c r="DF3">
         <v>0.2</v>
       </c>
-      <c r="CU3">
-        <v>28</v>
-      </c>
-      <c r="CV3">
+      <c r="DG3">
+        <v>29</v>
+      </c>
+      <c r="DH3">
         <v>0.5</v>
       </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0.3490740740740741</v>
-      </c>
-      <c r="CY3">
-        <v>-0.2959941012741295</v>
-      </c>
-      <c r="CZ3">
-        <v>18</v>
-      </c>
-      <c r="DA3">
-        <v>0.6231416015807558</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.08155030334520712</v>
-      </c>
-      <c r="DD3">
-        <v>-0.09816655187402112</v>
-      </c>
-      <c r="DE3">
-        <v>18</v>
-      </c>
-      <c r="DF3">
-        <v>2.242416442750961</v>
-      </c>
-      <c r="DG3">
-        <v>1</v>
-      </c>
-      <c r="DH3">
-        <v>0.1386774177799783</v>
-      </c>
       <c r="DI3">
-        <v>1.2</v>
+        <v>14</v>
       </c>
       <c r="DJ3">
-        <v>1.142857142857143</v>
+        <v>0.3676616915422885</v>
       </c>
       <c r="DK3">
-        <v>17</v>
+        <v>-0.2941742027073097</v>
       </c>
       <c r="DL3">
-        <v>1.193521041588088</v>
+        <v>59</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>0.5883484054145746</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="DO3">
-        <v>11</v>
+        <v>0.03344673232906653</v>
       </c>
       <c r="DP3">
-        <v>12.90351816301735</v>
+        <v>-0.03113541507274675</v>
       </c>
       <c r="DQ3">
-        <v>12.90351816301735</v>
+        <v>26</v>
       </c>
       <c r="DR3">
-        <v>0.4666666666666667</v>
+        <v>1.926795530090978</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.8</v>
+        <v>0.06227244614004166</v>
       </c>
       <c r="DU3">
         <v>2</v>
       </c>
       <c r="DV3">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="DW3">
+        <v>8</v>
+      </c>
+      <c r="DX3">
+        <v>1.023422531521977</v>
+      </c>
+      <c r="DY3">
+        <v>67</v>
+      </c>
+      <c r="DZ3">
+        <v>61</v>
+      </c>
+      <c r="EA3">
+        <v>37</v>
+      </c>
+      <c r="EB3">
+        <v>17.39252713092609</v>
+      </c>
+      <c r="EC3">
+        <v>31</v>
+      </c>
+      <c r="ED3">
+        <v>17.39252713092609</v>
+      </c>
+      <c r="EE3">
+        <v>19</v>
+      </c>
+      <c r="EF3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="EG3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="EH3">
+        <v>0.5</v>
+      </c>
+      <c r="EI3">
+        <v>16</v>
+      </c>
+      <c r="EJ3">
+        <v>0.7</v>
+      </c>
+      <c r="EK3">
+        <v>6</v>
+      </c>
+      <c r="EL3">
+        <v>0.6092592592592591</v>
+      </c>
+      <c r="EM3">
+        <v>0.3</v>
+      </c>
+      <c r="EN3">
+        <v>6</v>
+      </c>
+      <c r="EO3">
+        <v>0.5</v>
+      </c>
+      <c r="EP3">
+        <v>16</v>
+      </c>
+      <c r="EQ3">
+        <v>0.3907407407407407</v>
+      </c>
+      <c r="ER3">
+        <v>-0.3713906763541064</v>
+      </c>
+      <c r="ES3">
+        <v>13</v>
+      </c>
+      <c r="ET3">
+        <v>0.6120026658371508</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.1334741535110976</v>
+      </c>
+      <c r="EW3">
+        <v>-0.1227932104812623</v>
+      </c>
+      <c r="EX3">
+        <v>14</v>
+      </c>
+      <c r="EY3">
+        <v>2.364234407554874</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0.340920454941642</v>
+      </c>
+      <c r="FB3">
+        <v>1</v>
+      </c>
+      <c r="FC3">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="FD3">
+        <v>4</v>
+      </c>
+      <c r="FE3">
+        <v>1.163803394426512</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>30</v>
+      </c>
+      <c r="FM3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="FN3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="FO3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="FP3">
+        <v>11</v>
+      </c>
+      <c r="FQ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="FR3">
+        <v>19</v>
+      </c>
+      <c r="FS3">
+        <v>0.6356321839080459</v>
+      </c>
+      <c r="FT3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>19</v>
+      </c>
+      <c r="FV3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="FW3">
+        <v>11</v>
+      </c>
+      <c r="FX3">
+        <v>0.3643678160919542</v>
+      </c>
+      <c r="FY3">
+        <v>-0.3333333333333162</v>
+      </c>
+      <c r="FZ3">
+        <v>20</v>
+      </c>
+      <c r="GA3">
+        <v>0.8475193177303518</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.0920343234666358</v>
+      </c>
+      <c r="GD3">
+        <v>-0.04126228994105396</v>
+      </c>
+      <c r="GE3">
+        <v>6</v>
+      </c>
+      <c r="GF3">
+        <v>2.915173375998355</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0.1971171095958576</v>
+      </c>
+      <c r="GI3">
+        <v>5</v>
+      </c>
+      <c r="GJ3">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="GK3">
+        <v>6</v>
+      </c>
+      <c r="GL3">
+        <v>1.210905298376661</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>94</v>
+      </c>
+      <c r="GT3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="GU3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="GV3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="GW3">
+        <v>56</v>
+      </c>
+      <c r="GX3">
+        <v>0.8</v>
+      </c>
+      <c r="GY3">
+        <v>73</v>
+      </c>
+      <c r="GZ3">
+        <v>0.6376344086021506</v>
+      </c>
+      <c r="HA3">
         <v>0.2</v>
       </c>
-      <c r="DX3">
-        <v>2</v>
-      </c>
-      <c r="DY3">
+      <c r="HB3">
+        <v>73</v>
+      </c>
+      <c r="HC3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="HD3">
+        <v>56</v>
+      </c>
+      <c r="HE3">
+        <v>0.3623655913978492</v>
+      </c>
+      <c r="HF3">
+        <v>-0.4364357804719895</v>
+      </c>
+      <c r="HG3">
+        <v>37</v>
+      </c>
+      <c r="HH3">
+        <v>0.5395525825136553</v>
+      </c>
+      <c r="HI3">
+        <v>1</v>
+      </c>
+      <c r="HJ3">
+        <v>0.02778096084746382</v>
+      </c>
+      <c r="HK3">
+        <v>-0.1624102258708877</v>
+      </c>
+      <c r="HL3">
+        <v>37</v>
+      </c>
+      <c r="HM3">
+        <v>1.972250408498292</v>
+      </c>
+      <c r="HN3">
+        <v>1</v>
+      </c>
+      <c r="HO3">
+        <v>0.07006625863905729</v>
+      </c>
+      <c r="HP3">
+        <v>3</v>
+      </c>
+      <c r="HQ3">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="HR3">
+        <v>5</v>
+      </c>
+      <c r="HS3">
+        <v>1.058716664138587</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HZ3">
+        <v>150</v>
+      </c>
+      <c r="IA3">
+        <v>12.36660877911219</v>
+      </c>
+      <c r="IB3">
+        <v>12.36660877911219</v>
+      </c>
+      <c r="IC3">
+        <v>0.5</v>
+      </c>
+      <c r="ID3">
+        <v>132</v>
+      </c>
+      <c r="IE3">
+        <v>0.8</v>
+      </c>
+      <c r="IF3">
+        <v>5</v>
+      </c>
+      <c r="IG3">
+        <v>0.6431767337807611</v>
+      </c>
+      <c r="IH3">
+        <v>0.2</v>
+      </c>
+      <c r="II3">
+        <v>5</v>
+      </c>
+      <c r="IJ3">
+        <v>0.5</v>
+      </c>
+      <c r="IK3">
+        <v>132</v>
+      </c>
+      <c r="IL3">
+        <v>0.3568232662192392</v>
+      </c>
+      <c r="IM3">
+        <v>-0.3963041095172718</v>
+      </c>
+      <c r="IN3">
+        <v>42</v>
+      </c>
+      <c r="IO3">
+        <v>0.5555555555555812</v>
+      </c>
+      <c r="IP3">
+        <v>95</v>
+      </c>
+      <c r="IQ3">
+        <v>0.03019265329726829</v>
+      </c>
+      <c r="IR3">
+        <v>-0.1574373053304843</v>
+      </c>
+      <c r="IS3">
+        <v>4</v>
+      </c>
+      <c r="IT3">
+        <v>1.929193825904705</v>
+      </c>
+      <c r="IU3">
+        <v>1</v>
+      </c>
+      <c r="IV3">
+        <v>0.03453938268757439</v>
+      </c>
+      <c r="IW3">
+        <v>3</v>
+      </c>
+      <c r="IX3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="IY3">
+        <v>42</v>
+      </c>
+      <c r="IZ3">
+        <v>1.076157236146894</v>
+      </c>
+      <c r="JA3">
+        <v>149</v>
+      </c>
+      <c r="JB3">
+        <v>100</v>
+      </c>
+      <c r="JC3">
+        <v>99.5</v>
+      </c>
+      <c r="JD3">
+        <v>28.65091621571639</v>
+      </c>
+      <c r="JE3">
+        <v>50.5</v>
+      </c>
+      <c r="JF3">
+        <v>28.65091621571639</v>
+      </c>
+      <c r="JG3">
+        <v>28</v>
+      </c>
+      <c r="JH3">
+        <v>12.74322808606552</v>
+      </c>
+      <c r="JI3">
+        <v>12.74322808606552</v>
+      </c>
+      <c r="JJ3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="JK3">
+        <v>9</v>
+      </c>
+      <c r="JL3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="JM3">
+        <v>1</v>
+      </c>
+      <c r="JN3">
+        <v>0.6259259259259259</v>
+      </c>
+      <c r="JO3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="JP3">
+        <v>1</v>
+      </c>
+      <c r="JQ3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="DZ3">
+      <c r="JR3">
+        <v>9</v>
+      </c>
+      <c r="JS3">
+        <v>0.3740740740740742</v>
+      </c>
+      <c r="JT3">
+        <v>-0.342256973029734</v>
+      </c>
+      <c r="JU3">
+        <v>8</v>
+      </c>
+      <c r="JV3">
+        <v>0.6208823217429124</v>
+      </c>
+      <c r="JW3">
         <v>0</v>
       </c>
-      <c r="EA3">
-        <v>0.3699999999999999</v>
-      </c>
-      <c r="EB3">
-        <v>-0.1454785934906617</v>
-      </c>
-      <c r="EC3">
-        <v>6</v>
-      </c>
-      <c r="ED3">
-        <v>0.9039642141703439</v>
-      </c>
-      <c r="EE3">
+      <c r="JX3">
+        <v>0.1061480723849694</v>
+      </c>
+      <c r="JY3">
+        <v>-0.4484441998328883</v>
+      </c>
+      <c r="JZ3">
+        <v>8</v>
+      </c>
+      <c r="KA3">
+        <v>2.224239763458984</v>
+      </c>
+      <c r="KB3">
         <v>0</v>
       </c>
-      <c r="EF3">
-        <v>0.1940429556610067</v>
-      </c>
-      <c r="EG3">
-        <v>-0.2734222027219833</v>
-      </c>
-      <c r="EH3">
-        <v>6</v>
-      </c>
-      <c r="EI3">
-        <v>3.492114360999398</v>
-      </c>
-      <c r="EJ3">
+      <c r="KC3">
+        <v>0.1749975905998253</v>
+      </c>
+      <c r="KD3">
+        <v>3</v>
+      </c>
+      <c r="KE3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="KF3">
+        <v>19</v>
+      </c>
+      <c r="KG3">
+        <v>1.074627038524233</v>
+      </c>
+      <c r="KH3">
+        <v>27</v>
+      </c>
+      <c r="KI3">
+        <v>20</v>
+      </c>
+      <c r="KJ3">
+        <v>17.5</v>
+      </c>
+      <c r="KK3">
+        <v>5.556527692723217</v>
+      </c>
+      <c r="KL3">
+        <v>10.5</v>
+      </c>
+      <c r="KM3">
+        <v>5.556527692723217</v>
+      </c>
+      <c r="KN3">
+        <v>15</v>
+      </c>
+      <c r="KO3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KP3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KQ3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="KR3">
         <v>0</v>
       </c>
-      <c r="EK3">
-        <v>0.5008688235505032</v>
-      </c>
-      <c r="EL3">
-        <v>1.555555555555556</v>
-      </c>
-      <c r="EM3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="EN3">
+      <c r="KS3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="KT3">
+        <v>5</v>
+      </c>
+      <c r="KU3">
+        <v>0.6166666666666666</v>
+      </c>
+      <c r="KV3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="KW3">
+        <v>5</v>
+      </c>
+      <c r="KX3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="KY3">
+        <v>0</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="LA3">
+        <v>-0.4008918628686355</v>
+      </c>
+      <c r="LB3">
+        <v>10</v>
+      </c>
+      <c r="LC3">
+        <v>0.7578174355942338</v>
+      </c>
+      <c r="LD3">
+        <v>0</v>
+      </c>
+      <c r="LE3">
+        <v>0.1448215603228865</v>
+      </c>
+      <c r="LF3">
+        <v>-0.1962706352010866</v>
+      </c>
+      <c r="LG3">
+        <v>10</v>
+      </c>
+      <c r="LH3">
+        <v>2.887026100809789</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>0.3414992896184537</v>
+      </c>
+      <c r="LK3">
+        <v>1.8</v>
+      </c>
+      <c r="LL3">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="LM3">
         <v>3</v>
       </c>
-      <c r="EO3">
-        <v>1.307299189558281</v>
-      </c>
-      <c r="EP3">
+      <c r="LN3">
+        <v>1.419083798710471</v>
+      </c>
+      <c r="LO3">
         <v>0</v>
       </c>
-      <c r="EQ3">
+      <c r="LP3">
         <v>0</v>
       </c>
-      <c r="ER3">
-        <v>17</v>
-      </c>
-      <c r="ES3">
-        <v>12.49089526360681</v>
-      </c>
-      <c r="ET3">
-        <v>12.49089526360681</v>
-      </c>
-      <c r="EU3">
+      <c r="LU3">
+        <v>0.4</v>
+      </c>
+      <c r="LV3">
+        <v>4</v>
+      </c>
+      <c r="LW3">
+        <v>15</v>
+      </c>
+      <c r="LX3">
+        <v>94</v>
+      </c>
+      <c r="LY3">
+        <v>39.5</v>
+      </c>
+      <c r="LZ3">
+        <v>31.94135250736888</v>
+      </c>
+      <c r="MA3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="EV3">
+      <c r="MB3">
+        <v>11</v>
+      </c>
+      <c r="MC3">
+        <v>0.8</v>
+      </c>
+      <c r="MD3">
+        <v>73</v>
+      </c>
+      <c r="ME3">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="MF3">
+        <v>0.75</v>
+      </c>
+      <c r="MG3">
+        <v>0.6247981296090306</v>
+      </c>
+      <c r="MH3">
+        <v>0.02763853991962833</v>
+      </c>
+      <c r="MI3">
+        <v>0.03726779962499654</v>
+      </c>
+      <c r="MJ3">
+        <v>0.012142116498713</v>
+      </c>
+      <c r="MK3">
+        <v>0.2</v>
+      </c>
+      <c r="ML3">
+        <v>73</v>
+      </c>
+      <c r="MM3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="MN3">
+        <v>11</v>
+      </c>
+      <c r="MO3">
+        <v>0.25</v>
+      </c>
+      <c r="MP3">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3752018703909694</v>
+      </c>
+      <c r="MR3">
+        <v>0.03726779962499649</v>
+      </c>
+      <c r="MS3">
+        <v>0.02763853991962833</v>
+      </c>
+      <c r="MT3">
+        <v>0.01214211649871295</v>
+      </c>
+      <c r="MU3">
+        <v>-0.4364357804719895</v>
+      </c>
+      <c r="MV3">
+        <v>37</v>
+      </c>
+      <c r="MW3">
+        <v>0.8475193177303518</v>
+      </c>
+      <c r="MX3">
         <v>0</v>
       </c>
-      <c r="EW3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="EX3">
+      <c r="MY3">
+        <v>-0.3855129132570119</v>
+      </c>
+      <c r="MZ3">
+        <v>0.689223000418848</v>
+      </c>
+      <c r="NA3">
+        <v>0.09952774953702093</v>
+      </c>
+      <c r="NB3">
+        <v>0.03792030008025462</v>
+      </c>
+      <c r="NC3">
+        <v>0.12054784805238</v>
+      </c>
+      <c r="ND3">
+        <v>0.04584659409327286</v>
+      </c>
+      <c r="NE3">
+        <v>-0.1962706352010866</v>
+      </c>
+      <c r="NF3">
+        <v>10</v>
+      </c>
+      <c r="NG3">
+        <v>2.915173375998355</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-0.1306840903735726</v>
+      </c>
+      <c r="NJ3">
+        <v>2.534671073215327</v>
+      </c>
+      <c r="NK3">
+        <v>0.2374007781987527</v>
+      </c>
+      <c r="NL3">
+        <v>1</v>
+      </c>
+      <c r="NM3">
         <v>5</v>
       </c>
-      <c r="EY3">
-        <v>0.6041666666666665</v>
-      </c>
-      <c r="EZ3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="FA3">
-        <v>5</v>
-      </c>
-      <c r="FB3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0.3958333333333334</v>
-      </c>
-      <c r="FE3">
-        <v>-0.1738971278572908</v>
-      </c>
-      <c r="FF3">
-        <v>6</v>
-      </c>
-      <c r="FG3">
-        <v>0.7891302214566823</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0.176742312750429</v>
-      </c>
-      <c r="FJ3">
-        <v>-0.2525653670852623</v>
-      </c>
-      <c r="FK3">
-        <v>6</v>
-      </c>
-      <c r="FL3">
-        <v>2.714335076098078</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>0.3440382236731006</v>
-      </c>
-      <c r="FO3">
-        <v>0</v>
-      </c>
-      <c r="FP3">
-        <v>1.875</v>
-      </c>
-      <c r="FQ3">
-        <v>11</v>
-      </c>
-      <c r="FR3">
-        <v>1.200628171648933</v>
-      </c>
-      <c r="FS3">
-        <v>16</v>
-      </c>
-      <c r="FT3">
-        <v>16</v>
-      </c>
-      <c r="FU3">
-        <v>20</v>
-      </c>
-      <c r="FV3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="FW3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="FX3">
-        <v>0.5</v>
-      </c>
-      <c r="FY3">
-        <v>11</v>
-      </c>
-      <c r="FZ3">
-        <v>0.7</v>
-      </c>
-      <c r="GA3">
-        <v>18</v>
-      </c>
-      <c r="GB3">
-        <v>0.6070175438596489</v>
-      </c>
-      <c r="GC3">
-        <v>0.3</v>
-      </c>
-      <c r="GD3">
-        <v>18</v>
-      </c>
-      <c r="GE3">
-        <v>0.5</v>
-      </c>
-      <c r="GF3">
-        <v>11</v>
-      </c>
-      <c r="GG3">
-        <v>0.3929824561403508</v>
-      </c>
-      <c r="GH3">
-        <v>-0.2075143391598224</v>
-      </c>
-      <c r="GI3">
+      <c r="NN3">
+        <v>2.7</v>
+      </c>
+      <c r="NO3">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="NP3">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="NQ3">
+        <v>1.544594294594295</v>
+      </c>
+      <c r="NR3">
+        <v>1.058716664138587</v>
+      </c>
+      <c r="NS3">
+        <v>1.419083798710471</v>
+      </c>
+      <c r="NT3">
+        <v>1.213127288913058</v>
+      </c>
+      <c r="NU3">
         <v>10</v>
       </c>
-      <c r="GJ3">
-        <v>0.7834793127654773</v>
-      </c>
-      <c r="GK3">
-        <v>0</v>
-      </c>
-      <c r="GL3">
-        <v>0.1332573204163262</v>
-      </c>
-      <c r="GM3">
-        <v>-0.08120511293544297</v>
-      </c>
-      <c r="GN3">
-        <v>10</v>
-      </c>
-      <c r="GO3">
-        <v>2.795062290022278</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>0.2590648469861858</v>
-      </c>
-      <c r="GR3">
-        <v>1.857142857142857</v>
-      </c>
-      <c r="GS3">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="GT3">
-        <v>4</v>
-      </c>
-      <c r="GU3">
-        <v>1.217458274938391</v>
-      </c>
-      <c r="GV3">
-        <v>0</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>19</v>
-      </c>
-      <c r="GY3">
-        <v>12.21298829764394</v>
-      </c>
-      <c r="GZ3">
-        <v>12.21298829764394</v>
-      </c>
-      <c r="HA3">
-        <v>0.5</v>
-      </c>
-      <c r="HB3">
-        <v>0</v>
-      </c>
-      <c r="HC3">
-        <v>0.7</v>
-      </c>
-      <c r="HD3">
-        <v>10</v>
-      </c>
-      <c r="HE3">
-        <v>0.6351851851851849</v>
-      </c>
-      <c r="HF3">
-        <v>0.3</v>
-      </c>
-      <c r="HG3">
-        <v>10</v>
-      </c>
-      <c r="HH3">
-        <v>0.5</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.3648148148148148</v>
-      </c>
-      <c r="HK3">
-        <v>-0.2629158588868837</v>
-      </c>
-      <c r="HL3">
-        <v>11</v>
-      </c>
-      <c r="HM3">
-        <v>0.5270911203318654</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.1219840443479271</v>
-      </c>
-      <c r="HP3">
-        <v>-0.3219566039267132</v>
-      </c>
-      <c r="HQ3">
-        <v>4</v>
-      </c>
-      <c r="HR3">
-        <v>2.089704552829514</v>
-      </c>
-      <c r="HS3">
-        <v>0</v>
-      </c>
-      <c r="HT3">
-        <v>0.2592278633586381</v>
-      </c>
-      <c r="HU3">
-        <v>2</v>
-      </c>
-      <c r="HV3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="HW3">
-        <v>7</v>
-      </c>
-      <c r="HX3">
-        <v>1.028316974312792</v>
-      </c>
-      <c r="HY3">
-        <v>18</v>
-      </c>
-      <c r="HZ3">
-        <v>15</v>
-      </c>
-      <c r="IA3">
-        <v>24</v>
-      </c>
-      <c r="IB3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="IC3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="ID3">
-        <v>0.5</v>
-      </c>
-      <c r="IE3">
-        <v>1</v>
-      </c>
-      <c r="IF3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="IG3">
-        <v>2</v>
-      </c>
-      <c r="IH3">
-        <v>0.6463768115942028</v>
-      </c>
-      <c r="II3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="IJ3">
-        <v>2</v>
-      </c>
-      <c r="IK3">
-        <v>0.5</v>
-      </c>
-      <c r="IL3">
-        <v>1</v>
-      </c>
-      <c r="IM3">
-        <v>0.3536231884057969</v>
-      </c>
-      <c r="IN3">
-        <v>-0.2578689242386272</v>
-      </c>
-      <c r="IO3">
-        <v>16</v>
-      </c>
-      <c r="IP3">
-        <v>0.5458053236255827</v>
-      </c>
-      <c r="IQ3">
-        <v>0</v>
-      </c>
-      <c r="IR3">
-        <v>0.09920526085820876</v>
-      </c>
-      <c r="IS3">
-        <v>-0.1794849475660953</v>
-      </c>
-      <c r="IT3">
-        <v>5</v>
-      </c>
-      <c r="IU3">
-        <v>1.955285021657131</v>
-      </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>0.2240947723890851</v>
-      </c>
-      <c r="IX3">
-        <v>1</v>
-      </c>
-      <c r="IY3">
-        <v>1.636363636363636</v>
-      </c>
-      <c r="IZ3">
-        <v>11</v>
-      </c>
-      <c r="JA3">
-        <v>1.189089000576639</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JC3">
-        <v>0</v>
-      </c>
-      <c r="JD3">
-        <v>22</v>
-      </c>
-      <c r="JE3">
-        <v>12.87129965752215</v>
-      </c>
-      <c r="JF3">
-        <v>12.87129965752215</v>
-      </c>
-      <c r="JG3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="JH3">
-        <v>2</v>
-      </c>
-      <c r="JI3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="JJ3">
-        <v>8</v>
-      </c>
-      <c r="JK3">
-        <v>0.6365079365079364</v>
-      </c>
-      <c r="JL3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="JM3">
-        <v>8</v>
-      </c>
-      <c r="JN3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="JO3">
-        <v>2</v>
-      </c>
-      <c r="JP3">
-        <v>0.3634920634920634</v>
-      </c>
-      <c r="JQ3">
-        <v>-0.2941742027072923</v>
-      </c>
-      <c r="JR3">
-        <v>20</v>
-      </c>
-      <c r="JS3">
-        <v>0.6060188731712863</v>
-      </c>
-      <c r="JT3">
-        <v>0</v>
-      </c>
-      <c r="JU3">
-        <v>0.08227377184462614</v>
-      </c>
-      <c r="JV3">
-        <v>-0.147380542477368</v>
-      </c>
-      <c r="JW3">
-        <v>5</v>
-      </c>
-      <c r="JX3">
-        <v>2.308725323872917</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>0.2536701107666681</v>
-      </c>
-      <c r="KA3">
-        <v>1</v>
-      </c>
-      <c r="KB3">
-        <v>1.5</v>
-      </c>
-      <c r="KC3">
-        <v>8</v>
-      </c>
-      <c r="KD3">
-        <v>1.079347041847042</v>
-      </c>
-      <c r="KE3">
-        <v>21</v>
-      </c>
-      <c r="KF3">
-        <v>1</v>
-      </c>
-      <c r="KG3">
-        <v>0.6</v>
-      </c>
-      <c r="KH3">
-        <v>6</v>
-      </c>
-      <c r="KI3">
-        <v>11</v>
-      </c>
-      <c r="KJ3">
-        <v>37</v>
-      </c>
-      <c r="KK3">
-        <v>21.5</v>
-      </c>
-      <c r="KL3">
-        <v>8.05708797684788</v>
-      </c>
-      <c r="KM3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KN3">
-        <v>0</v>
-      </c>
-      <c r="KO3">
-        <v>0.8</v>
-      </c>
-      <c r="KP3">
-        <v>7</v>
-      </c>
-      <c r="KQ3">
-        <v>0.5055555555555555</v>
-      </c>
-      <c r="KR3">
-        <v>0.7666666666666666</v>
-      </c>
-      <c r="KS3">
-        <v>0.6360904172669999</v>
-      </c>
-      <c r="KT3">
-        <v>0.02290614236454255</v>
-      </c>
-      <c r="KU3">
-        <v>0.03849001794597509</v>
-      </c>
-      <c r="KV3">
-        <v>0.01516371636365017</v>
-      </c>
-      <c r="KW3">
-        <v>0.2</v>
-      </c>
-      <c r="KX3">
-        <v>7</v>
-      </c>
-      <c r="KY3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KZ3">
-        <v>0</v>
-      </c>
-      <c r="LA3">
-        <v>0.2333333333333334</v>
-      </c>
-      <c r="LB3">
-        <v>0.4944444444444445</v>
-      </c>
-      <c r="LC3">
-        <v>0.3639095827329999</v>
-      </c>
-      <c r="LD3">
-        <v>0.03849001794597504</v>
-      </c>
-      <c r="LE3">
-        <v>0.02290614236454255</v>
-      </c>
-      <c r="LF3">
-        <v>0.01516371636365008</v>
-      </c>
-      <c r="LG3">
-        <v>-0.2959941012741295</v>
-      </c>
-      <c r="LH3">
-        <v>18</v>
-      </c>
-      <c r="LI3">
-        <v>0.9039642141703439</v>
-      </c>
-      <c r="LJ3">
-        <v>0</v>
-      </c>
-      <c r="LK3">
-        <v>-0.203492322958049</v>
-      </c>
-      <c r="LL3">
-        <v>0.7184605149580229</v>
-      </c>
-      <c r="LM3">
-        <v>0.1377044280225535</v>
-      </c>
-      <c r="LN3">
-        <v>0.06795124480246263</v>
-      </c>
-      <c r="LO3">
-        <v>0.114380326021273</v>
-      </c>
-      <c r="LP3">
-        <v>0.03846936701853907</v>
-      </c>
-      <c r="LQ3">
-        <v>-0.2734222027219833</v>
-      </c>
-      <c r="LR3">
-        <v>6</v>
-      </c>
-      <c r="LS3">
-        <v>3.492114360999398</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>-0.1561825419084369</v>
-      </c>
-      <c r="LV3">
-        <v>2.511270487584182</v>
-      </c>
-      <c r="LW3">
-        <v>0.2874164283958834</v>
-      </c>
-      <c r="LX3">
-        <v>1</v>
-      </c>
-      <c r="LY3">
-        <v>3</v>
-      </c>
-      <c r="LZ3">
-        <v>1.768783068783069</v>
-      </c>
-      <c r="MA3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="MB3">
-        <v>1.636363636363636</v>
-      </c>
-      <c r="MC3">
-        <v>1.231518481518481</v>
-      </c>
-      <c r="MD3">
-        <v>1.189089000576639</v>
-      </c>
-      <c r="ME3">
-        <v>1.307299189558281</v>
-      </c>
-      <c r="MF3">
-        <v>1.236299433848991</v>
-      </c>
-      <c r="MG3">
-        <v>17</v>
-      </c>
-      <c r="MH3">
-        <v>42</v>
-      </c>
-      <c r="MI3">
-        <v>25</v>
-      </c>
-      <c r="MJ3">
-        <v>9.974968671630002</v>
-      </c>
-      <c r="MK3">
-        <v>12.61162071907376</v>
-      </c>
-      <c r="ML3">
-        <v>0.2776457928548832</v>
-      </c>
-      <c r="MM3">
-        <v>12.87129965752215</v>
+      <c r="NV3">
+        <v>150</v>
+      </c>
+      <c r="NW3">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="NX3">
+        <v>44.87915873642118</v>
+      </c>
+      <c r="NY3">
+        <v>11.66394742715304</v>
+      </c>
+      <c r="NZ3">
+        <v>1.166666006732365</v>
+      </c>
+      <c r="OA3">
+        <v>12.8391615976917</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fexp0.25_gray/Fexp0.25_gray_30.xlsx
+++ b/out_test/tables/Fexp0.25_gray/Fexp0.25_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,94 +2706,94 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>12.8391615976917</v>
+        <v>12.87129965752215</v>
       </c>
       <c r="E3">
-        <v>12.8391615976917</v>
+        <v>12.87129965752215</v>
       </c>
       <c r="F3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>0.6384615384615384</v>
+        <v>0.6513888888888887</v>
       </c>
       <c r="K3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O3">
-        <v>0.3615384615384616</v>
+        <v>0.3486111111111111</v>
       </c>
       <c r="P3">
-        <v>-0.3891656261169884</v>
+        <v>-0.2968296435316778</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>0.8283588062878896</v>
+        <v>0.76652865382077</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02683165757495463</v>
+        <v>0.06954827871505802</v>
       </c>
       <c r="U3">
-        <v>-0.2264604019189438</v>
+        <v>-0.1469804871953784</v>
       </c>
       <c r="V3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W3">
-        <v>3.418395673626436</v>
+        <v>3.163240632008145</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1086578560152876</v>
+        <v>0.1885395619185398</v>
       </c>
       <c r="Z3">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>1.153846153846154</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AC3">
-        <v>1.095265146360347</v>
+        <v>1.074571428571429</v>
       </c>
       <c r="AD3">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AE3">
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2382,1039 +2805,1273 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>59</v>
+        <v>0.3352173948966658</v>
       </c>
       <c r="AK3">
-        <v>9.703629589458101</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>9.703629589458101</v>
+        <v>1.546007284371295</v>
       </c>
       <c r="AM3">
+        <v>1.002335653849396</v>
+      </c>
+      <c r="AN3">
+        <v>18</v>
+      </c>
+      <c r="AO3">
+        <v>2.489532213193234</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.059738406055407</v>
+      </c>
+      <c r="AR3">
+        <v>24</v>
+      </c>
+      <c r="AS3">
+        <v>15</v>
+      </c>
+      <c r="AT3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="AU3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="AV3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AN3">
-        <v>4</v>
-      </c>
-      <c r="AO3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AP3">
-        <v>42</v>
-      </c>
-      <c r="AQ3">
-        <v>0.6454022988505748</v>
-      </c>
-      <c r="AR3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="AS3">
-        <v>42</v>
-      </c>
-      <c r="AT3">
+      <c r="AW3">
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <v>0.7</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6285714285714284</v>
+      </c>
+      <c r="BA3">
+        <v>0.3</v>
+      </c>
+      <c r="BB3">
+        <v>8</v>
+      </c>
+      <c r="BC3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="AU3">
-        <v>4</v>
-      </c>
-      <c r="AV3">
-        <v>0.3545977011494254</v>
-      </c>
-      <c r="AW3">
-        <v>-0.2909571869813053</v>
-      </c>
-      <c r="AX3">
-        <v>20</v>
-      </c>
-      <c r="AY3">
-        <v>0.6265879795363771</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.04719841030341715</v>
-      </c>
-      <c r="BB3">
-        <v>-0.3097377052102068</v>
-      </c>
-      <c r="BC3">
+      <c r="BD3">
+        <v>10</v>
+      </c>
+      <c r="BE3">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>12</v>
+      </c>
+      <c r="BH3">
+        <v>0.6051862408960733</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1790179323864025</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>12</v>
+      </c>
+      <c r="BM3">
+        <v>2.125351824915558</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.3603604264671856</v>
+      </c>
+      <c r="BP3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BQ3">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="BR3">
+        <v>5</v>
+      </c>
+      <c r="BS3">
+        <v>1.320706362109159</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.2979010510825311</v>
+      </c>
+      <c r="CA3">
         <v>3</v>
       </c>
-      <c r="BD3">
-        <v>2.200512529508224</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0.03051718435152912</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>8</v>
-      </c>
-      <c r="BJ3">
-        <v>0.985954631083388</v>
-      </c>
-      <c r="BK3">
-        <v>58</v>
-      </c>
-      <c r="BL3">
-        <v>56</v>
-      </c>
-      <c r="BM3">
-        <v>30.5</v>
-      </c>
-      <c r="BN3">
-        <v>15.94913790773659</v>
-      </c>
-      <c r="BO3">
-        <v>28.5</v>
-      </c>
-      <c r="BP3">
-        <v>15.94913790773659</v>
-      </c>
-      <c r="BQ3">
-        <v>10</v>
-      </c>
-      <c r="BR3">
-        <v>10.53812886169548</v>
-      </c>
-      <c r="BS3">
-        <v>10.53812886169548</v>
-      </c>
-      <c r="BT3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BU3">
-        <v>1</v>
-      </c>
-      <c r="BV3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="BW3">
-        <v>6</v>
-      </c>
-      <c r="BX3">
-        <v>0.6185185185185185</v>
-      </c>
-      <c r="BY3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BZ3">
-        <v>6</v>
-      </c>
-      <c r="CA3">
-        <v>0.4666666666666667</v>
-      </c>
       <c r="CB3">
-        <v>1</v>
+        <v>1.641988143111385</v>
       </c>
       <c r="CC3">
-        <v>0.3814814814814815</v>
+        <v>1.007690303230861</v>
       </c>
       <c r="CD3">
-        <v>-0.09898644013205754</v>
+        <v>14</v>
       </c>
       <c r="CE3">
-        <v>4</v>
+        <v>2.25069723566721</v>
       </c>
       <c r="CF3">
-        <v>0.4888108716714299</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>1.180315795346036</v>
       </c>
       <c r="CH3">
-        <v>0.2016394271209617</v>
+        <v>14</v>
       </c>
       <c r="CI3">
-        <v>-0.1461545018173069</v>
+        <v>11</v>
       </c>
       <c r="CJ3">
-        <v>4</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="CK3">
-        <v>1.595416174697483</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="CL3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="CM3">
-        <v>0.4178613102506272</v>
+        <v>3</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="CO3">
-        <v>1.214285714285714</v>
+        <v>9</v>
       </c>
       <c r="CP3">
-        <v>5</v>
+        <v>0.6066666666666666</v>
       </c>
       <c r="CQ3">
-        <v>0.9846013321716646</v>
+        <v>0.3</v>
       </c>
       <c r="CR3">
         <v>9</v>
       </c>
       <c r="CS3">
+        <v>0.5</v>
+      </c>
+      <c r="CT3">
+        <v>3</v>
+      </c>
+      <c r="CU3">
+        <v>0.3933333333333334</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>9</v>
+      </c>
+      <c r="CX3">
+        <v>0.5848019966898769</v>
+      </c>
+      <c r="CY3">
+        <v>2</v>
+      </c>
+      <c r="CZ3">
+        <v>0.3042233580996453</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>9</v>
+      </c>
+      <c r="DC3">
+        <v>1.701452422165367</v>
+      </c>
+      <c r="DD3">
+        <v>2</v>
+      </c>
+      <c r="DE3">
+        <v>0.5933807137517965</v>
+      </c>
+      <c r="DF3">
+        <v>1.5</v>
+      </c>
+      <c r="DG3">
+        <v>1.6</v>
+      </c>
+      <c r="DH3">
+        <v>5</v>
+      </c>
+      <c r="DI3">
+        <v>1.416413807886822</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.3874672718722786</v>
+      </c>
+      <c r="DQ3">
+        <v>2</v>
+      </c>
+      <c r="DR3">
+        <v>1.851370611465604</v>
+      </c>
+      <c r="DS3">
+        <v>1.006490473247658</v>
+      </c>
+      <c r="DT3">
+        <v>9</v>
+      </c>
+      <c r="DU3">
+        <v>2.35892223164642</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.217841237962322</v>
+      </c>
+      <c r="DX3">
+        <v>10</v>
+      </c>
+      <c r="DY3">
+        <v>32</v>
+      </c>
+      <c r="DZ3">
+        <v>12.7751260120747</v>
+      </c>
+      <c r="EA3">
+        <v>12.77512601207469</v>
+      </c>
+      <c r="EB3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EC3">
+        <v>18</v>
+      </c>
+      <c r="ED3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="EE3">
+        <v>28</v>
+      </c>
+      <c r="EF3">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="EG3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="EH3">
+        <v>28</v>
+      </c>
+      <c r="EI3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="EJ3">
+        <v>18</v>
+      </c>
+      <c r="EK3">
+        <v>0.3666666666666668</v>
+      </c>
+      <c r="EL3">
+        <v>-0.236366782924129</v>
+      </c>
+      <c r="EM3">
+        <v>15</v>
+      </c>
+      <c r="EN3">
+        <v>0.7746194919280911</v>
+      </c>
+      <c r="EO3">
+        <v>1</v>
+      </c>
+      <c r="EP3">
+        <v>0.1111576878100734</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.2070027644762504</v>
+      </c>
+      <c r="ER3">
+        <v>15</v>
+      </c>
+      <c r="ES3">
+        <v>2.829784215312627</v>
+      </c>
+      <c r="ET3">
+        <v>1</v>
+      </c>
+      <c r="EU3">
+        <v>0.1981018285839758</v>
+      </c>
+      <c r="EV3">
+        <v>2</v>
+      </c>
+      <c r="EW3">
+        <v>1.5</v>
+      </c>
+      <c r="EX3">
+        <v>15</v>
+      </c>
+      <c r="EY3">
+        <v>1.113314946677719</v>
+      </c>
+      <c r="EZ3">
+        <v>31</v>
+      </c>
+      <c r="FA3">
+        <v>27</v>
+      </c>
+      <c r="FB3">
+        <v>18</v>
+      </c>
+      <c r="FC3">
+        <v>7.577378614446204</v>
+      </c>
+      <c r="FD3">
+        <v>14</v>
+      </c>
+      <c r="FE3">
+        <v>7.577378614446204</v>
+      </c>
+      <c r="FF3">
+        <v>0.7746194919280911</v>
+      </c>
+      <c r="FG3">
+        <v>1</v>
+      </c>
+      <c r="FH3">
+        <v>1.945067504683982</v>
+      </c>
+      <c r="FI3">
+        <v>1.003182180214986</v>
+      </c>
+      <c r="FJ3">
+        <v>26</v>
+      </c>
+      <c r="FK3">
+        <v>2.266209013897506</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.102932281621284</v>
+      </c>
+      <c r="FN3">
+        <v>31</v>
+      </c>
+      <c r="FO3">
+        <v>22</v>
+      </c>
+      <c r="FP3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="FQ3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="FR3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>11</v>
+      </c>
+      <c r="FV3">
+        <v>0.6333333333333332</v>
+      </c>
+      <c r="FW3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="FX3">
+        <v>11</v>
+      </c>
+      <c r="FY3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0.3666666666666668</v>
+      </c>
+      <c r="GB3">
+        <v>-0.222222222222219</v>
+      </c>
+      <c r="GC3">
+        <v>15</v>
+      </c>
+      <c r="GD3">
+        <v>1.331112309523567</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.09338012156018186</v>
+      </c>
+      <c r="GG3">
+        <v>-0.08186214032084216</v>
+      </c>
+      <c r="GH3">
+        <v>12</v>
+      </c>
+      <c r="GI3">
+        <v>5.142234990415643</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0.1599317907661328</v>
+      </c>
+      <c r="GL3">
+        <v>0.9</v>
+      </c>
+      <c r="GM3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="GN3">
+        <v>4</v>
+      </c>
+      <c r="GO3">
+        <v>1.164059164126931</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0.1964568117692176</v>
+      </c>
+      <c r="GW3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="GX3">
+        <v>1.351868517920279</v>
+      </c>
+      <c r="GY3">
+        <v>1.003182180214986</v>
+      </c>
+      <c r="GZ3">
+        <v>20</v>
+      </c>
+      <c r="HA3">
+        <v>2.930808944634443</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.058279269919044</v>
+      </c>
+      <c r="HD3">
+        <v>21</v>
+      </c>
+      <c r="HE3">
+        <v>36</v>
+      </c>
+      <c r="HF3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="HG3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="HH3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="HK3">
+        <v>22</v>
+      </c>
+      <c r="HL3">
+        <v>0.6352380952380955</v>
+      </c>
+      <c r="HM3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="HN3">
+        <v>22</v>
+      </c>
+      <c r="HO3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3647619047619049</v>
+      </c>
+      <c r="HR3">
+        <v>-0.301511344577761</v>
+      </c>
+      <c r="HS3">
+        <v>18</v>
+      </c>
+      <c r="HT3">
+        <v>1.180955896194701</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.08182176500966318</v>
+      </c>
+      <c r="HW3">
+        <v>-0.05501638658807195</v>
+      </c>
+      <c r="HX3">
+        <v>18</v>
+      </c>
+      <c r="HY3">
+        <v>4.062079901652933</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>0.1305568472178654</v>
+      </c>
+      <c r="IB3">
+        <v>1.25</v>
+      </c>
+      <c r="IC3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="ID3">
         <v>7</v>
       </c>
-      <c r="CT3">
+      <c r="IE3">
+        <v>1.153188755507879</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.4380227241799289</v>
+      </c>
+      <c r="IM3">
+        <v>4</v>
+      </c>
+      <c r="IN3">
+        <v>1.548293019027641</v>
+      </c>
+      <c r="IO3">
+        <v>1.001067055733231</v>
+      </c>
+      <c r="IP3">
+        <v>35</v>
+      </c>
+      <c r="IQ3">
+        <v>3.020522797633995</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.054518864546714</v>
+      </c>
+      <c r="IT3">
+        <v>35</v>
+      </c>
+      <c r="IU3">
+        <v>47</v>
+      </c>
+      <c r="IV3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="IW3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="IX3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="IY3">
+        <v>1</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="JA3">
+        <v>23</v>
+      </c>
+      <c r="JB3">
+        <v>0.6210144927536231</v>
+      </c>
+      <c r="JC3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="JD3">
+        <v>23</v>
+      </c>
+      <c r="JE3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="JF3">
+        <v>1</v>
+      </c>
+      <c r="JG3">
+        <v>0.378985507246377</v>
+      </c>
+      <c r="JH3">
+        <v>-0.292423704459557</v>
+      </c>
+      <c r="JI3">
+        <v>9</v>
+      </c>
+      <c r="JJ3">
+        <v>0.6591755849095291</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.07358864625240878</v>
+      </c>
+      <c r="JM3">
+        <v>-0.304686162414697</v>
+      </c>
+      <c r="JN3">
+        <v>9</v>
+      </c>
+      <c r="JO3">
+        <v>2.351608766006446</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.1166453394946383</v>
+      </c>
+      <c r="JR3">
+        <v>2</v>
+      </c>
+      <c r="JS3">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="JT3">
+        <v>8</v>
+      </c>
+      <c r="JU3">
+        <v>1.103802218131759</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.4656312665022247</v>
+      </c>
+      <c r="KC3">
+        <v>2</v>
+      </c>
+      <c r="KD3">
+        <v>1.711834016452486</v>
+      </c>
+      <c r="KE3">
+        <v>1.002102161031624</v>
+      </c>
+      <c r="KF3">
+        <v>46</v>
+      </c>
+      <c r="KG3">
+        <v>2.488037290665575</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.070001122911975</v>
+      </c>
+      <c r="KJ3">
+        <v>46</v>
+      </c>
+      <c r="KK3">
+        <v>41</v>
+      </c>
+      <c r="KL3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KM3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KN3">
+        <v>0.5</v>
+      </c>
+      <c r="KO3">
+        <v>0</v>
+      </c>
+      <c r="KP3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="KQ3">
+        <v>2</v>
+      </c>
+      <c r="KR3">
+        <v>0.65</v>
+      </c>
+      <c r="KS3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="KT3">
+        <v>2</v>
+      </c>
+      <c r="KU3">
+        <v>0.5</v>
+      </c>
+      <c r="KV3">
+        <v>0</v>
+      </c>
+      <c r="KW3">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="KX3">
+        <v>-0.2416459451430248</v>
+      </c>
+      <c r="KY3">
+        <v>11</v>
+      </c>
+      <c r="KZ3">
+        <v>0.7058180050713464</v>
+      </c>
+      <c r="LA3">
+        <v>0</v>
+      </c>
+      <c r="LB3">
+        <v>0.08295446410272198</v>
+      </c>
+      <c r="LC3">
+        <v>-0.2496308524013262</v>
+      </c>
+      <c r="LD3">
+        <v>8</v>
+      </c>
+      <c r="LE3">
+        <v>2.798284853931865</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>0.1162012776181635</v>
+      </c>
+      <c r="LH3">
+        <v>1</v>
+      </c>
+      <c r="LI3">
+        <v>1.5</v>
+      </c>
+      <c r="LJ3">
+        <v>10</v>
+      </c>
+      <c r="LK3">
+        <v>1.121527455157478</v>
+      </c>
+      <c r="LL3">
+        <v>0</v>
+      </c>
+      <c r="LM3">
+        <v>0</v>
+      </c>
+      <c r="LR3">
+        <v>0.401519036852237</v>
+      </c>
+      <c r="LS3">
+        <v>1</v>
+      </c>
+      <c r="LT3">
+        <v>1.563027030682485</v>
+      </c>
+      <c r="LU3">
+        <v>1.002781685273891</v>
+      </c>
+      <c r="LV3">
+        <v>40</v>
+      </c>
+      <c r="LW3">
+        <v>2.364501986521656</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.075356272676226</v>
+      </c>
+      <c r="LZ3">
+        <v>40</v>
+      </c>
+      <c r="MA3">
+        <v>141</v>
+      </c>
+      <c r="MB3">
+        <v>12.74322808606552</v>
+      </c>
+      <c r="MC3">
+        <v>12.74322808606552</v>
+      </c>
+      <c r="MD3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="ME3">
+        <v>7</v>
+      </c>
+      <c r="MF3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MG3">
+        <v>21</v>
+      </c>
+      <c r="MH3">
+        <v>0.6416666666666677</v>
+      </c>
+      <c r="MI3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="MJ3">
+        <v>21</v>
+      </c>
+      <c r="MK3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="ML3">
+        <v>7</v>
+      </c>
+      <c r="MM3">
+        <v>0.3583333333333329</v>
+      </c>
+      <c r="MN3">
+        <v>-0.4364357804719606</v>
+      </c>
+      <c r="MO3">
+        <v>89</v>
+      </c>
+      <c r="MP3">
+        <v>0.6987111546685835</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.009823730814353596</v>
+      </c>
+      <c r="MS3">
+        <v>-0.05115125100218521</v>
+      </c>
+      <c r="MT3">
+        <v>10</v>
+      </c>
+      <c r="MU3">
+        <v>2.503052638096705</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.03175801479683973</v>
+      </c>
+      <c r="MX3">
+        <v>3</v>
+      </c>
+      <c r="MY3">
+        <v>1.25</v>
+      </c>
+      <c r="MZ3">
+        <v>14</v>
+      </c>
+      <c r="NA3">
+        <v>1.042775329043518</v>
+      </c>
+      <c r="NB3">
+        <v>140</v>
+      </c>
+      <c r="NC3">
+        <v>1</v>
+      </c>
+      <c r="ND3">
+        <v>140</v>
+      </c>
+      <c r="NE3">
+        <v>0</v>
+      </c>
+      <c r="NF3">
+        <v>1</v>
+      </c>
+      <c r="NG3">
+        <v>0</v>
+      </c>
+      <c r="NH3">
+        <v>0.6245613930878242</v>
+      </c>
+      <c r="NI3">
+        <v>1</v>
+      </c>
+      <c r="NJ3">
+        <v>1.55518299277541</v>
+      </c>
+      <c r="NK3">
+        <v>1.002074661895014</v>
+      </c>
+      <c r="NL3">
+        <v>84</v>
+      </c>
+      <c r="NM3">
+        <v>2.227027837808698</v>
+      </c>
+      <c r="NN3">
+        <v>0</v>
+      </c>
+      <c r="NO3">
+        <v>1.018447609872964</v>
+      </c>
+      <c r="NP3">
+        <v>140</v>
+      </c>
+      <c r="NQ3">
+        <v>13</v>
+      </c>
+      <c r="NR3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="NS3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="NT3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="NU3">
+        <v>0</v>
+      </c>
+      <c r="NV3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="NW3">
+        <v>5</v>
+      </c>
+      <c r="NX3">
+        <v>0.6472222222222223</v>
+      </c>
+      <c r="NY3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="NZ3">
+        <v>5</v>
+      </c>
+      <c r="OA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="OB3">
+        <v>0</v>
+      </c>
+      <c r="OC3">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="OD3">
+        <v>-0.2441028559242977</v>
+      </c>
+      <c r="OE3">
+        <v>4</v>
+      </c>
+      <c r="OF3">
+        <v>0.9489184889417221</v>
+      </c>
+      <c r="OG3">
+        <v>0</v>
+      </c>
+      <c r="OH3">
+        <v>0.1932522345100528</v>
+      </c>
+      <c r="OI3">
+        <v>-0.3629278927530741</v>
+      </c>
+      <c r="OJ3">
+        <v>4</v>
+      </c>
+      <c r="OK3">
+        <v>3.61505597052877</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>0.3377466820782809</v>
+      </c>
+      <c r="ON3">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="OO3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="OP3">
         <v>6</v>
       </c>
-      <c r="CU3">
-        <v>1.802775637731995</v>
-      </c>
-      <c r="CV3">
+      <c r="OQ3">
+        <v>1.397322525454224</v>
+      </c>
+      <c r="OR3">
+        <v>0</v>
+      </c>
+      <c r="OS3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.5112164836526708</v>
+      </c>
+      <c r="OY3">
+        <v>3</v>
+      </c>
+      <c r="OZ3">
+        <v>1.457932730905575</v>
+      </c>
+      <c r="PA3">
+        <v>1.01024430124188</v>
+      </c>
+      <c r="PB3">
+        <v>12</v>
+      </c>
+      <c r="PC3">
+        <v>2.464619084170235</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.113422794465445</v>
+      </c>
+      <c r="PF3">
+        <v>12</v>
+      </c>
+      <c r="PG3">
+        <v>0.7</v>
+      </c>
+      <c r="PH3">
+        <v>7</v>
+      </c>
+      <c r="PI3">
+        <v>11</v>
+      </c>
+      <c r="PJ3">
+        <v>47</v>
+      </c>
+      <c r="PK3">
+        <v>26.42857142857143</v>
+      </c>
+      <c r="PL3">
+        <v>13.605221086639</v>
+      </c>
+      <c r="PM3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="PN3">
+        <v>0</v>
+      </c>
+      <c r="PO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="PP3">
+        <v>22</v>
+      </c>
+      <c r="PQ3">
+        <v>0.4619047619047619</v>
+      </c>
+      <c r="PR3">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="PS3">
+        <v>0.6317208912550527</v>
+      </c>
+      <c r="PT3">
+        <v>0.05172752614857246</v>
+      </c>
+      <c r="PU3">
+        <v>0.02519763153394852</v>
+      </c>
+      <c r="PV3">
+        <v>0.01384427692673933</v>
+      </c>
+      <c r="PW3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="PX3">
+        <v>22</v>
+      </c>
+      <c r="PY3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="PZ3">
+        <v>0</v>
+      </c>
+      <c r="QA3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="QB3">
+        <v>0.5380952380952381</v>
+      </c>
+      <c r="QC3">
+        <v>0.3682791087449474</v>
+      </c>
+      <c r="QD3">
+        <v>0.02519763153394848</v>
+      </c>
+      <c r="QE3">
+        <v>0.05172752614857244</v>
+      </c>
+      <c r="QF3">
+        <v>0.01384427692673926</v>
+      </c>
+      <c r="QG3">
+        <v>-0.301511344577761</v>
+      </c>
+      <c r="QH3">
+        <v>18</v>
+      </c>
+      <c r="QI3">
+        <v>1.331112309523567</v>
+      </c>
+      <c r="QJ3">
+        <v>0</v>
+      </c>
+      <c r="QK3">
+        <v>-0.1859865817609799</v>
+      </c>
+      <c r="QL3">
+        <v>0.8594240746038307</v>
+      </c>
+      <c r="QM3">
+        <v>0.1440340745601538</v>
+      </c>
+      <c r="QN3">
+        <v>0.1205021261204545</v>
+      </c>
+      <c r="QO3">
+        <v>0.2771359123615238</v>
+      </c>
+      <c r="QP3">
+        <v>0.07967467399671466</v>
+      </c>
+      <c r="QQ3">
+        <v>-0.3629278927530741</v>
+      </c>
+      <c r="QR3">
         <v>4</v>
       </c>
-      <c r="CW3">
-        <v>1.802775637731995</v>
-      </c>
-      <c r="CX3">
-        <v>68</v>
-      </c>
-      <c r="CY3">
-        <v>11.79292764889527</v>
-      </c>
-      <c r="CZ3">
-        <v>11.79292764889527</v>
-      </c>
-      <c r="DA3">
-        <v>0.5</v>
-      </c>
-      <c r="DB3">
-        <v>14</v>
-      </c>
-      <c r="DC3">
-        <v>0.8</v>
-      </c>
-      <c r="DD3">
-        <v>29</v>
-      </c>
-      <c r="DE3">
-        <v>0.6323383084577118</v>
-      </c>
-      <c r="DF3">
-        <v>0.2</v>
-      </c>
-      <c r="DG3">
-        <v>29</v>
-      </c>
-      <c r="DH3">
-        <v>0.5</v>
-      </c>
-      <c r="DI3">
-        <v>14</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3676616915422885</v>
-      </c>
-      <c r="DK3">
-        <v>-0.2941742027073097</v>
-      </c>
-      <c r="DL3">
-        <v>59</v>
-      </c>
-      <c r="DM3">
-        <v>0.5883484054145746</v>
-      </c>
-      <c r="DN3">
-        <v>47</v>
-      </c>
-      <c r="DO3">
-        <v>0.03344673232906653</v>
-      </c>
-      <c r="DP3">
-        <v>-0.03113541507274675</v>
-      </c>
-      <c r="DQ3">
-        <v>26</v>
-      </c>
-      <c r="DR3">
-        <v>1.926795530090978</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.06227244614004166</v>
-      </c>
-      <c r="DU3">
-        <v>2</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3">
-        <v>8</v>
-      </c>
-      <c r="DX3">
-        <v>1.023422531521977</v>
-      </c>
-      <c r="DY3">
-        <v>67</v>
-      </c>
-      <c r="DZ3">
-        <v>61</v>
-      </c>
-      <c r="EA3">
-        <v>37</v>
-      </c>
-      <c r="EB3">
-        <v>17.39252713092609</v>
-      </c>
-      <c r="EC3">
-        <v>31</v>
-      </c>
-      <c r="ED3">
-        <v>17.39252713092609</v>
-      </c>
-      <c r="EE3">
-        <v>19</v>
-      </c>
-      <c r="EF3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="EG3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="EH3">
-        <v>0.5</v>
-      </c>
-      <c r="EI3">
-        <v>16</v>
-      </c>
-      <c r="EJ3">
-        <v>0.7</v>
-      </c>
-      <c r="EK3">
-        <v>6</v>
-      </c>
-      <c r="EL3">
-        <v>0.6092592592592591</v>
-      </c>
-      <c r="EM3">
-        <v>0.3</v>
-      </c>
-      <c r="EN3">
-        <v>6</v>
-      </c>
-      <c r="EO3">
-        <v>0.5</v>
-      </c>
-      <c r="EP3">
-        <v>16</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3907407407407407</v>
-      </c>
-      <c r="ER3">
-        <v>-0.3713906763541064</v>
-      </c>
-      <c r="ES3">
-        <v>13</v>
-      </c>
-      <c r="ET3">
-        <v>0.6120026658371508</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0.1334741535110976</v>
-      </c>
-      <c r="EW3">
-        <v>-0.1227932104812623</v>
-      </c>
-      <c r="EX3">
-        <v>14</v>
-      </c>
-      <c r="EY3">
-        <v>2.364234407554874</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0.340920454941642</v>
-      </c>
-      <c r="FB3">
-        <v>1</v>
-      </c>
-      <c r="FC3">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="FD3">
-        <v>4</v>
-      </c>
-      <c r="FE3">
-        <v>1.163803394426512</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>30</v>
-      </c>
-      <c r="FM3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="FN3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="FO3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="FP3">
-        <v>11</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="FR3">
-        <v>19</v>
-      </c>
-      <c r="FS3">
-        <v>0.6356321839080459</v>
-      </c>
-      <c r="FT3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="FU3">
-        <v>19</v>
-      </c>
-      <c r="FV3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FW3">
-        <v>11</v>
-      </c>
-      <c r="FX3">
-        <v>0.3643678160919542</v>
-      </c>
-      <c r="FY3">
-        <v>-0.3333333333333162</v>
-      </c>
-      <c r="FZ3">
-        <v>20</v>
-      </c>
-      <c r="GA3">
-        <v>0.8475193177303518</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.0920343234666358</v>
-      </c>
-      <c r="GD3">
-        <v>-0.04126228994105396</v>
-      </c>
-      <c r="GE3">
-        <v>6</v>
-      </c>
-      <c r="GF3">
-        <v>2.915173375998355</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0.1971171095958576</v>
-      </c>
-      <c r="GI3">
-        <v>5</v>
-      </c>
-      <c r="GJ3">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="GK3">
-        <v>6</v>
-      </c>
-      <c r="GL3">
-        <v>1.210905298376661</v>
-      </c>
-      <c r="GM3">
-        <v>0</v>
-      </c>
-      <c r="GN3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>94</v>
-      </c>
-      <c r="GT3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="GU3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="GV3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="GW3">
-        <v>56</v>
-      </c>
-      <c r="GX3">
-        <v>0.8</v>
-      </c>
-      <c r="GY3">
-        <v>73</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6376344086021506</v>
-      </c>
-      <c r="HA3">
-        <v>0.2</v>
-      </c>
-      <c r="HB3">
-        <v>73</v>
-      </c>
-      <c r="HC3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="HD3">
-        <v>56</v>
-      </c>
-      <c r="HE3">
-        <v>0.3623655913978492</v>
-      </c>
-      <c r="HF3">
-        <v>-0.4364357804719895</v>
-      </c>
-      <c r="HG3">
-        <v>37</v>
-      </c>
-      <c r="HH3">
-        <v>0.5395525825136553</v>
-      </c>
-      <c r="HI3">
-        <v>1</v>
-      </c>
-      <c r="HJ3">
-        <v>0.02778096084746382</v>
-      </c>
-      <c r="HK3">
-        <v>-0.1624102258708877</v>
-      </c>
-      <c r="HL3">
-        <v>37</v>
-      </c>
-      <c r="HM3">
-        <v>1.972250408498292</v>
-      </c>
-      <c r="HN3">
-        <v>1</v>
-      </c>
-      <c r="HO3">
-        <v>0.07006625863905729</v>
-      </c>
-      <c r="HP3">
-        <v>3</v>
-      </c>
-      <c r="HQ3">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="HR3">
-        <v>5</v>
-      </c>
-      <c r="HS3">
-        <v>1.058716664138587</v>
-      </c>
-      <c r="HT3">
-        <v>0</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>150</v>
-      </c>
-      <c r="IA3">
-        <v>12.36660877911219</v>
-      </c>
-      <c r="IB3">
-        <v>12.36660877911219</v>
-      </c>
-      <c r="IC3">
-        <v>0.5</v>
-      </c>
-      <c r="ID3">
-        <v>132</v>
-      </c>
-      <c r="IE3">
-        <v>0.8</v>
-      </c>
-      <c r="IF3">
-        <v>5</v>
-      </c>
-      <c r="IG3">
-        <v>0.6431767337807611</v>
-      </c>
-      <c r="IH3">
-        <v>0.2</v>
-      </c>
-      <c r="II3">
-        <v>5</v>
-      </c>
-      <c r="IJ3">
-        <v>0.5</v>
-      </c>
-      <c r="IK3">
-        <v>132</v>
-      </c>
-      <c r="IL3">
-        <v>0.3568232662192392</v>
-      </c>
-      <c r="IM3">
-        <v>-0.3963041095172718</v>
-      </c>
-      <c r="IN3">
-        <v>42</v>
-      </c>
-      <c r="IO3">
-        <v>0.5555555555555812</v>
-      </c>
-      <c r="IP3">
-        <v>95</v>
-      </c>
-      <c r="IQ3">
-        <v>0.03019265329726829</v>
-      </c>
-      <c r="IR3">
-        <v>-0.1574373053304843</v>
-      </c>
-      <c r="IS3">
-        <v>4</v>
-      </c>
-      <c r="IT3">
-        <v>1.929193825904705</v>
-      </c>
-      <c r="IU3">
-        <v>1</v>
-      </c>
-      <c r="IV3">
-        <v>0.03453938268757439</v>
-      </c>
-      <c r="IW3">
-        <v>3</v>
-      </c>
-      <c r="IX3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="IY3">
-        <v>42</v>
-      </c>
-      <c r="IZ3">
-        <v>1.076157236146894</v>
-      </c>
-      <c r="JA3">
-        <v>149</v>
-      </c>
-      <c r="JB3">
-        <v>100</v>
-      </c>
-      <c r="JC3">
-        <v>99.5</v>
-      </c>
-      <c r="JD3">
-        <v>28.65091621571639</v>
-      </c>
-      <c r="JE3">
-        <v>50.5</v>
-      </c>
-      <c r="JF3">
-        <v>28.65091621571639</v>
-      </c>
-      <c r="JG3">
-        <v>28</v>
-      </c>
-      <c r="JH3">
-        <v>12.74322808606552</v>
-      </c>
-      <c r="JI3">
-        <v>12.74322808606552</v>
-      </c>
-      <c r="JJ3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="JK3">
-        <v>9</v>
-      </c>
-      <c r="JL3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JM3">
-        <v>1</v>
-      </c>
-      <c r="JN3">
-        <v>0.6259259259259259</v>
-      </c>
-      <c r="JO3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JP3">
-        <v>1</v>
-      </c>
-      <c r="JQ3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="JR3">
-        <v>9</v>
-      </c>
-      <c r="JS3">
-        <v>0.3740740740740742</v>
-      </c>
-      <c r="JT3">
-        <v>-0.342256973029734</v>
-      </c>
-      <c r="JU3">
-        <v>8</v>
-      </c>
-      <c r="JV3">
-        <v>0.6208823217429124</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="JX3">
-        <v>0.1061480723849694</v>
-      </c>
-      <c r="JY3">
-        <v>-0.4484441998328883</v>
-      </c>
-      <c r="JZ3">
-        <v>8</v>
-      </c>
-      <c r="KA3">
-        <v>2.224239763458984</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0.1749975905998253</v>
-      </c>
-      <c r="KD3">
-        <v>3</v>
-      </c>
-      <c r="KE3">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="KF3">
-        <v>19</v>
-      </c>
-      <c r="KG3">
-        <v>1.074627038524233</v>
-      </c>
-      <c r="KH3">
-        <v>27</v>
-      </c>
-      <c r="KI3">
-        <v>20</v>
-      </c>
-      <c r="KJ3">
-        <v>17.5</v>
-      </c>
-      <c r="KK3">
-        <v>5.556527692723217</v>
-      </c>
-      <c r="KL3">
-        <v>10.5</v>
-      </c>
-      <c r="KM3">
-        <v>5.556527692723217</v>
-      </c>
-      <c r="KN3">
-        <v>15</v>
-      </c>
-      <c r="KO3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="KP3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="KQ3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KR3">
-        <v>0</v>
-      </c>
-      <c r="KS3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="KT3">
-        <v>5</v>
-      </c>
-      <c r="KU3">
-        <v>0.6166666666666666</v>
-      </c>
-      <c r="KV3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="KW3">
-        <v>5</v>
-      </c>
-      <c r="KX3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KY3">
-        <v>0</v>
-      </c>
-      <c r="KZ3">
-        <v>0.3833333333333334</v>
-      </c>
-      <c r="LA3">
-        <v>-0.4008918628686355</v>
-      </c>
-      <c r="LB3">
-        <v>10</v>
-      </c>
-      <c r="LC3">
-        <v>0.7578174355942338</v>
-      </c>
-      <c r="LD3">
-        <v>0</v>
-      </c>
-      <c r="LE3">
-        <v>0.1448215603228865</v>
-      </c>
-      <c r="LF3">
-        <v>-0.1962706352010866</v>
-      </c>
-      <c r="LG3">
-        <v>10</v>
-      </c>
-      <c r="LH3">
-        <v>2.887026100809789</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>0.3414992896184537</v>
-      </c>
-      <c r="LK3">
-        <v>1.8</v>
-      </c>
-      <c r="LL3">
-        <v>1.777777777777778</v>
-      </c>
-      <c r="LM3">
-        <v>3</v>
-      </c>
-      <c r="LN3">
-        <v>1.419083798710471</v>
-      </c>
-      <c r="LO3">
-        <v>0</v>
-      </c>
-      <c r="LP3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>0.4</v>
-      </c>
-      <c r="LV3">
-        <v>4</v>
-      </c>
-      <c r="LW3">
-        <v>15</v>
-      </c>
-      <c r="LX3">
-        <v>94</v>
-      </c>
-      <c r="LY3">
-        <v>39.5</v>
-      </c>
-      <c r="LZ3">
-        <v>31.94135250736888</v>
-      </c>
-      <c r="MA3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="MB3">
-        <v>11</v>
-      </c>
-      <c r="MC3">
-        <v>0.8</v>
-      </c>
-      <c r="MD3">
-        <v>73</v>
-      </c>
-      <c r="ME3">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="MF3">
-        <v>0.75</v>
-      </c>
-      <c r="MG3">
-        <v>0.6247981296090306</v>
-      </c>
-      <c r="MH3">
-        <v>0.02763853991962833</v>
-      </c>
-      <c r="MI3">
-        <v>0.03726779962499654</v>
-      </c>
-      <c r="MJ3">
-        <v>0.012142116498713</v>
-      </c>
-      <c r="MK3">
-        <v>0.2</v>
-      </c>
-      <c r="ML3">
-        <v>73</v>
-      </c>
-      <c r="MM3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="MN3">
-        <v>11</v>
-      </c>
-      <c r="MO3">
-        <v>0.25</v>
-      </c>
-      <c r="MP3">
-        <v>0.4916666666666667</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3752018703909694</v>
-      </c>
-      <c r="MR3">
-        <v>0.03726779962499649</v>
-      </c>
-      <c r="MS3">
-        <v>0.02763853991962833</v>
-      </c>
-      <c r="MT3">
-        <v>0.01214211649871295</v>
-      </c>
-      <c r="MU3">
-        <v>-0.4364357804719895</v>
-      </c>
-      <c r="MV3">
-        <v>37</v>
-      </c>
-      <c r="MW3">
-        <v>0.8475193177303518</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
-      <c r="MY3">
-        <v>-0.3855129132570119</v>
-      </c>
-      <c r="MZ3">
-        <v>0.689223000418848</v>
-      </c>
-      <c r="NA3">
-        <v>0.09952774953702093</v>
-      </c>
-      <c r="NB3">
-        <v>0.03792030008025462</v>
-      </c>
-      <c r="NC3">
-        <v>0.12054784805238</v>
-      </c>
-      <c r="ND3">
-        <v>0.04584659409327286</v>
-      </c>
-      <c r="NE3">
-        <v>-0.1962706352010866</v>
-      </c>
-      <c r="NF3">
-        <v>10</v>
-      </c>
-      <c r="NG3">
-        <v>2.915173375998355</v>
-      </c>
-      <c r="NH3">
-        <v>0</v>
-      </c>
-      <c r="NI3">
-        <v>-0.1306840903735726</v>
-      </c>
-      <c r="NJ3">
-        <v>2.534671073215327</v>
-      </c>
-      <c r="NK3">
-        <v>0.2374007781987527</v>
-      </c>
-      <c r="NL3">
-        <v>1</v>
-      </c>
-      <c r="NM3">
-        <v>5</v>
-      </c>
-      <c r="NN3">
-        <v>2.7</v>
-      </c>
-      <c r="NO3">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="NP3">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="NQ3">
-        <v>1.544594294594295</v>
-      </c>
-      <c r="NR3">
-        <v>1.058716664138587</v>
-      </c>
-      <c r="NS3">
-        <v>1.419083798710471</v>
-      </c>
-      <c r="NT3">
-        <v>1.213127288913058</v>
-      </c>
-      <c r="NU3">
-        <v>10</v>
-      </c>
-      <c r="NV3">
-        <v>150</v>
-      </c>
-      <c r="NW3">
-        <v>59.16666666666666</v>
-      </c>
-      <c r="NX3">
-        <v>44.87915873642118</v>
-      </c>
-      <c r="NY3">
-        <v>11.66394742715304</v>
-      </c>
-      <c r="NZ3">
-        <v>1.166666006732365</v>
-      </c>
-      <c r="OA3">
-        <v>12.8391615976917</v>
+      <c r="QS3">
+        <v>5.142234990415643</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-0.1505890620682873</v>
+      </c>
+      <c r="QV3">
+        <v>3.113724104230941</v>
+      </c>
+      <c r="QW3">
+        <v>0.2592604396277233</v>
+      </c>
+      <c r="QX3">
+        <v>0.9</v>
+      </c>
+      <c r="QY3">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="QZ3">
+        <v>1.521428571428571</v>
+      </c>
+      <c r="RA3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="RB3">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="RC3">
+        <v>1.581484388627246</v>
+      </c>
+      <c r="RD3">
+        <v>1.103802218131759</v>
+      </c>
+      <c r="RE3">
+        <v>1.416413807886822</v>
+      </c>
+      <c r="RF3">
+        <v>1.239574326910607</v>
+      </c>
+      <c r="RG3">
+        <v>25</v>
+      </c>
+      <c r="RH3">
+        <v>141</v>
+      </c>
+      <c r="RI3">
+        <v>66</v>
+      </c>
+      <c r="RJ3">
+        <v>53.10994884827763</v>
+      </c>
+      <c r="RK3">
+        <v>12.79655125188746</v>
+      </c>
+      <c r="RL3">
+        <v>0.05443566557333544</v>
+      </c>
+      <c r="RM3">
+        <v>12.87129965752215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fexp0.25_gray/Fexp0.25_gray_30.xlsx
+++ b/out_test/tables/Fexp0.25_gray/Fexp0.25_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>12.87129965752215</v>
@@ -2718,82 +2866,82 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.7666666666666667</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>0.6513888888888887</v>
+        <v>0.6349794238683131</v>
       </c>
       <c r="K3">
         <v>0.2333333333333333</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3">
         <v>0.5</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3486111111111111</v>
+        <v>0.3650205761316871</v>
       </c>
       <c r="P3">
-        <v>-0.2968296435316778</v>
+        <v>-0.4708709557972964</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="R3">
-        <v>0.76652865382077</v>
+        <v>0.755309365989539</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06954827871505802</v>
+        <v>0.01328046080001389</v>
       </c>
       <c r="U3">
-        <v>-0.1469804871953784</v>
+        <v>-0.1671018203901635</v>
       </c>
       <c r="V3">
         <v>6</v>
       </c>
       <c r="W3">
-        <v>3.163240632008145</v>
+        <v>3.116941896855783</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1885395619185398</v>
+        <v>0.0564351632246583</v>
       </c>
       <c r="Z3">
         <v>3</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="AB3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>1.074571428571429</v>
+        <v>1.059865654903127</v>
       </c>
       <c r="AD3">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="AE3">
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2805,34 +2953,34 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.3352173948966658</v>
+        <v>0.4985241479961487</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL3">
-        <v>1.546007284371295</v>
+        <v>1.554631108253816</v>
       </c>
       <c r="AM3">
-        <v>1.002335653849396</v>
+        <v>1.00066627765768</v>
       </c>
       <c r="AN3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AO3">
-        <v>2.489532213193234</v>
+        <v>2.489532213193235</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.059738406055407</v>
+        <v>1.014492850913369</v>
       </c>
       <c r="AR3">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="AS3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AT3">
         <v>12.90351816301735</v>
@@ -2844,73 +2992,73 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="AW3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX3">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="AY3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ3">
-        <v>0.6285714285714284</v>
+        <v>0.6380952380952378</v>
       </c>
       <c r="BA3">
-        <v>0.3</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="BB3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BC3">
         <v>0.4666666666666667</v>
       </c>
       <c r="BD3">
+        <v>13</v>
+      </c>
+      <c r="BE3">
+        <v>0.361904761904762</v>
+      </c>
+      <c r="BF3">
+        <v>-0.3353811891031641</v>
+      </c>
+      <c r="BG3">
+        <v>13</v>
+      </c>
+      <c r="BH3">
+        <v>0.5707204700772677</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1350122243798288</v>
+      </c>
+      <c r="BK3">
+        <v>-0.4512761059702921</v>
+      </c>
+      <c r="BL3">
+        <v>13</v>
+      </c>
+      <c r="BM3">
+        <v>2.004311583157238</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.2460041053475676</v>
+      </c>
+      <c r="BP3">
+        <v>3</v>
+      </c>
+      <c r="BQ3">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="BR3">
         <v>10</v>
       </c>
-      <c r="BE3">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>12</v>
-      </c>
-      <c r="BH3">
-        <v>0.6051862408960733</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0.1790179323864025</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>12</v>
-      </c>
-      <c r="BM3">
-        <v>2.125351824915558</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0.3603604264671856</v>
-      </c>
-      <c r="BP3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="BQ3">
-        <v>1.888888888888889</v>
-      </c>
-      <c r="BR3">
-        <v>5</v>
-      </c>
       <c r="BS3">
-        <v>1.320706362109159</v>
+        <v>1.219145707535036</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2919,19 +3067,19 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.2979010510825311</v>
+        <v>0.5293245117453499</v>
       </c>
       <c r="CA3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>1.641988143111385</v>
+        <v>1.66767452627732</v>
       </c>
       <c r="CC3">
-        <v>1.007690303230861</v>
+        <v>1.005871124971247</v>
       </c>
       <c r="CD3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="CE3">
         <v>2.25069723566721</v>
@@ -2940,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.180315795346036</v>
+        <v>1.172347903346435</v>
       </c>
       <c r="CH3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="CI3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CJ3">
         <v>12.90351816301735</v>
@@ -2955,76 +3103,76 @@
         <v>12.90351816301735</v>
       </c>
       <c r="CL3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="CM3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CO3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CP3">
-        <v>0.6066666666666666</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="CQ3">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CR3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CS3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="CT3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.3933333333333334</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>-0.1576220812478198</v>
       </c>
       <c r="CW3">
         <v>9</v>
       </c>
       <c r="CX3">
-        <v>0.5848019966898769</v>
+        <v>0.8539818974478885</v>
       </c>
       <c r="CY3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.3042233580996453</v>
+        <v>0.1913622044792731</v>
       </c>
       <c r="DA3">
-        <v>0</v>
+        <v>-0.2645536698879063</v>
       </c>
       <c r="DB3">
         <v>9</v>
       </c>
       <c r="DC3">
-        <v>1.701452422165367</v>
+        <v>2.681828551938723</v>
       </c>
       <c r="DD3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.5933807137517965</v>
+        <v>0.3959665899951455</v>
       </c>
       <c r="DF3">
-        <v>1.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="DG3">
-        <v>1.6</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="DH3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DI3">
-        <v>1.416413807886822</v>
+        <v>1.398951924590593</v>
       </c>
       <c r="DJ3">
         <v>0</v>
@@ -3033,19 +3181,19 @@
         <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.3874672718722786</v>
+        <v>0.4808392391342982</v>
       </c>
       <c r="DQ3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DR3">
-        <v>1.851370611465604</v>
+        <v>1.582881040834502</v>
       </c>
       <c r="DS3">
-        <v>1.006490473247658</v>
+        <v>1.010357398434966</v>
       </c>
       <c r="DT3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DU3">
         <v>2.35892223164642</v>
@@ -3054,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1.217841237962322</v>
+        <v>1.212266831649334</v>
       </c>
       <c r="DX3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DY3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="DZ3">
         <v>12.7751260120747</v>
@@ -3069,124 +3217,124 @@
         <v>12.77512601207469</v>
       </c>
       <c r="EB3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="EC3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="EE3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="EF3">
-        <v>0.633333333333333</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="EG3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="EH3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="EI3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="EJ3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.3666666666666668</v>
+        <v>0.3611111111111113</v>
       </c>
       <c r="EL3">
-        <v>-0.236366782924129</v>
+        <v>-0.3564797969666248</v>
       </c>
       <c r="EM3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="EN3">
-        <v>0.7746194919280911</v>
+        <v>0.9319824661155841</v>
       </c>
       <c r="EO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.1111576878100734</v>
+        <v>0.05583188037517993</v>
       </c>
       <c r="EQ3">
-        <v>-0.2070027644762504</v>
+        <v>-0.2646455171427711</v>
       </c>
       <c r="ER3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="ES3">
-        <v>2.829784215312627</v>
+        <v>3.316165725933659</v>
       </c>
       <c r="ET3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.1981018285839758</v>
+        <v>0.1255027352906513</v>
       </c>
       <c r="EV3">
         <v>2</v>
       </c>
       <c r="EW3">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="EX3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="EY3">
-        <v>1.113314946677719</v>
+        <v>1.095596160112289</v>
       </c>
       <c r="EZ3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="FA3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="FC3">
-        <v>7.577378614446204</v>
+        <v>0</v>
       </c>
       <c r="FD3">
+        <v>1</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0.4216321755468393</v>
+      </c>
+      <c r="FG3">
+        <v>3</v>
+      </c>
+      <c r="FH3">
+        <v>1.432125995147043</v>
+      </c>
+      <c r="FI3">
+        <v>1.008698488637721</v>
+      </c>
+      <c r="FJ3">
+        <v>24</v>
+      </c>
+      <c r="FK3">
+        <v>2.266209013897507</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.047099062293434</v>
+      </c>
+      <c r="FN3">
+        <v>30</v>
+      </c>
+      <c r="FO3">
         <v>14</v>
-      </c>
-      <c r="FE3">
-        <v>7.577378614446204</v>
-      </c>
-      <c r="FF3">
-        <v>0.7746194919280911</v>
-      </c>
-      <c r="FG3">
-        <v>1</v>
-      </c>
-      <c r="FH3">
-        <v>1.945067504683982</v>
-      </c>
-      <c r="FI3">
-        <v>1.003182180214986</v>
-      </c>
-      <c r="FJ3">
-        <v>26</v>
-      </c>
-      <c r="FK3">
-        <v>2.266209013897506</v>
-      </c>
-      <c r="FL3">
-        <v>0</v>
-      </c>
-      <c r="FM3">
-        <v>1.102932281621284</v>
-      </c>
-      <c r="FN3">
-        <v>31</v>
-      </c>
-      <c r="FO3">
-        <v>22</v>
       </c>
       <c r="FP3">
         <v>12.90351816301735</v>
@@ -3195,76 +3343,76 @@
         <v>12.90351816301735</v>
       </c>
       <c r="FR3">
-        <v>0.3666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="FS3">
         <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="FU3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="FV3">
-        <v>0.6333333333333332</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="FX3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="FY3">
-        <v>0.6333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="FZ3">
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3666666666666668</v>
+        <v>0.4</v>
       </c>
       <c r="GB3">
-        <v>-0.222222222222219</v>
+        <v>-0.03479899746919135</v>
       </c>
       <c r="GC3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="GD3">
-        <v>1.331112309523567</v>
+        <v>0.9210866791696868</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.09338012156018186</v>
+        <v>0.1642802936614458</v>
       </c>
       <c r="GG3">
-        <v>-0.08186214032084216</v>
+        <v>-0.04093107016042019</v>
       </c>
       <c r="GH3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="GI3">
-        <v>5.142234990415643</v>
+        <v>3.558260348841177</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.1599317907661328</v>
+        <v>0.380195557512558</v>
       </c>
       <c r="GL3">
-        <v>0.9</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="GM3">
-        <v>1.416666666666667</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="GN3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="GO3">
-        <v>1.164059164126931</v>
+        <v>1.243765382977262</v>
       </c>
       <c r="GP3">
         <v>0</v>
@@ -3273,133 +3421,145 @@
         <v>0</v>
       </c>
       <c r="GV3">
-        <v>0.1964568117692176</v>
+        <v>0.4918523124771166</v>
       </c>
       <c r="GW3">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="GX3">
-        <v>1.351868517920279</v>
+        <v>1.620846275659587</v>
       </c>
       <c r="GY3">
         <v>1.003182180214986</v>
       </c>
       <c r="GZ3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="HA3">
-        <v>2.930808944634443</v>
+        <v>2.930808944634442</v>
       </c>
       <c r="HB3">
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.058279269919044</v>
+        <v>1.093324997160372</v>
       </c>
       <c r="HD3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="HE3">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="HF3">
-        <v>12.90351816301735</v>
+        <v>9.369877288937928</v>
       </c>
       <c r="HG3">
-        <v>12.90351816301735</v>
+        <v>9.369877288937925</v>
       </c>
       <c r="HH3">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="HI3">
         <v>0</v>
       </c>
       <c r="HJ3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="HK3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="HL3">
-        <v>0.6352380952380955</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="HM3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="HN3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="HO3">
-        <v>0.5666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="HP3">
         <v>0</v>
       </c>
       <c r="HQ3">
-        <v>0.3647619047619049</v>
+        <v>0.373913043478261</v>
       </c>
       <c r="HR3">
-        <v>-0.301511344577761</v>
+        <v>-0.301511344577752</v>
       </c>
       <c r="HS3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="HT3">
-        <v>1.180955896194701</v>
+        <v>0.7208800644597959</v>
       </c>
       <c r="HU3">
         <v>0</v>
       </c>
       <c r="HV3">
-        <v>0.08182176500966318</v>
+        <v>0.05295339217369997</v>
       </c>
       <c r="HW3">
-        <v>-0.05501638658807195</v>
+        <v>-0.09253847283883587</v>
       </c>
       <c r="HX3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="HY3">
-        <v>4.062079901652933</v>
+        <v>2.479578137320746</v>
       </c>
       <c r="HZ3">
         <v>0</v>
       </c>
       <c r="IA3">
-        <v>0.1305568472178654</v>
+        <v>0.05692066397560993</v>
       </c>
       <c r="IB3">
-        <v>1.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="IC3">
-        <v>1.214285714285714</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="ID3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="IE3">
-        <v>1.153188755507879</v>
+        <v>0.981134765030691</v>
       </c>
       <c r="IF3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="IG3">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="IH3">
+        <v>23</v>
+      </c>
+      <c r="II3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="IJ3">
+        <v>24</v>
+      </c>
+      <c r="IK3">
+        <v>13.35102992281869</v>
       </c>
       <c r="IL3">
-        <v>0.4380227241799289</v>
+        <v>0.2076216369384671</v>
       </c>
       <c r="IM3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="IN3">
-        <v>1.548293019027641</v>
+        <v>1.85008454138116</v>
       </c>
       <c r="IO3">
-        <v>1.001067055733231</v>
+        <v>1.001228359759179</v>
       </c>
       <c r="IP3">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="IQ3">
         <v>3.020522797633995</v>
@@ -3408,127 +3568,139 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.054518864546714</v>
+        <v>1.076578604584437</v>
       </c>
       <c r="IT3">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="IU3">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="IV3">
-        <v>12.90351816301735</v>
+        <v>12.09146703366292</v>
       </c>
       <c r="IW3">
-        <v>12.90351816301735</v>
+        <v>12.09146703366292</v>
       </c>
       <c r="IX3">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="IY3">
+        <v>0</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="JA3">
+        <v>9</v>
+      </c>
+      <c r="JB3">
+        <v>0.6606060606060606</v>
+      </c>
+      <c r="JC3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JD3">
+        <v>9</v>
+      </c>
+      <c r="JE3">
+        <v>0.6</v>
+      </c>
+      <c r="JF3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>0.3393939393939394</v>
+      </c>
+      <c r="JH3">
+        <v>-0.2035713279444484</v>
+      </c>
+      <c r="JI3">
+        <v>5</v>
+      </c>
+      <c r="JJ3">
+        <v>0.9748940688880715</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.1051436778526191</v>
+      </c>
+      <c r="JM3">
+        <v>-0.3021215465806506</v>
+      </c>
+      <c r="JN3">
+        <v>5</v>
+      </c>
+      <c r="JO3">
+        <v>3.47793439382245</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3115735326893574</v>
+      </c>
+      <c r="JR3">
         <v>1</v>
       </c>
-      <c r="IZ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JA3">
-        <v>23</v>
-      </c>
-      <c r="JB3">
-        <v>0.6210144927536231</v>
-      </c>
-      <c r="JC3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JD3">
-        <v>23</v>
-      </c>
-      <c r="JE3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="JF3">
+      <c r="JS3">
+        <v>0</v>
+      </c>
+      <c r="JT3">
+        <v>12</v>
+      </c>
+      <c r="JU3">
+        <v>0.9587301587301585</v>
+      </c>
+      <c r="JV3">
+        <v>11</v>
+      </c>
+      <c r="JW3">
         <v>1</v>
       </c>
-      <c r="JG3">
-        <v>0.378985507246377</v>
-      </c>
-      <c r="JH3">
-        <v>-0.292423704459557</v>
-      </c>
-      <c r="JI3">
+      <c r="JX3">
+        <v>11</v>
+      </c>
+      <c r="JY3">
+        <v>0</v>
+      </c>
+      <c r="JZ3">
+        <v>1</v>
+      </c>
+      <c r="KA3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.2980848561680404</v>
+      </c>
+      <c r="KC3">
+        <v>2.5</v>
+      </c>
+      <c r="KD3">
+        <v>1.489298545081966</v>
+      </c>
+      <c r="KE3">
+        <v>1.062402363966363</v>
+      </c>
+      <c r="KF3">
         <v>9</v>
       </c>
-      <c r="JJ3">
-        <v>0.6591755849095291</v>
-      </c>
-      <c r="JK3">
-        <v>0</v>
-      </c>
-      <c r="JL3">
-        <v>0.07358864625240878</v>
-      </c>
-      <c r="JM3">
-        <v>-0.304686162414697</v>
-      </c>
-      <c r="JN3">
-        <v>9</v>
-      </c>
-      <c r="JO3">
-        <v>2.351608766006446</v>
-      </c>
-      <c r="JP3">
-        <v>0</v>
-      </c>
-      <c r="JQ3">
-        <v>0.1166453394946383</v>
-      </c>
-      <c r="JR3">
-        <v>2</v>
-      </c>
-      <c r="JS3">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="JT3">
-        <v>8</v>
-      </c>
-      <c r="JU3">
-        <v>1.103802218131759</v>
-      </c>
-      <c r="JV3">
-        <v>0</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="KB3">
-        <v>0.4656312665022247</v>
-      </c>
-      <c r="KC3">
-        <v>2</v>
-      </c>
-      <c r="KD3">
-        <v>1.711834016452486</v>
-      </c>
-      <c r="KE3">
-        <v>1.002102161031624</v>
-      </c>
-      <c r="KF3">
-        <v>46</v>
-      </c>
       <c r="KG3">
-        <v>2.488037290665575</v>
+        <v>2.488037290665576</v>
       </c>
       <c r="KH3">
         <v>0</v>
       </c>
       <c r="KI3">
-        <v>1.070001122911975</v>
+        <v>1.163549656132915</v>
       </c>
       <c r="KJ3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="KK3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="KL3">
         <v>12.90351816301735</v>
@@ -3537,76 +3709,76 @@
         <v>12.90351816301735</v>
       </c>
       <c r="KN3">
-        <v>0.5</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="KO3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KP3">
         <v>0.7666666666666667</v>
       </c>
       <c r="KQ3">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="KR3">
-        <v>0.65</v>
+        <v>0.6479674796747966</v>
       </c>
       <c r="KS3">
         <v>0.2333333333333333</v>
       </c>
       <c r="KT3">
+        <v>37</v>
+      </c>
+      <c r="KU3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="KV3">
+        <v>4</v>
+      </c>
+      <c r="KW3">
+        <v>0.3520325203252033</v>
+      </c>
+      <c r="KX3">
+        <v>-0.2182178902359895</v>
+      </c>
+      <c r="KY3">
+        <v>29</v>
+      </c>
+      <c r="KZ3">
+        <v>0.539538850733858</v>
+      </c>
+      <c r="LA3">
+        <v>1</v>
+      </c>
+      <c r="LB3">
+        <v>0.08846882042652937</v>
+      </c>
+      <c r="LC3">
+        <v>-0.1182016085217459</v>
+      </c>
+      <c r="LD3">
+        <v>22</v>
+      </c>
+      <c r="LE3">
+        <v>2.093971821256211</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>0.1305454667659072</v>
+      </c>
+      <c r="LH3">
         <v>2</v>
       </c>
-      <c r="KU3">
-        <v>0.5</v>
-      </c>
-      <c r="KV3">
-        <v>0</v>
-      </c>
-      <c r="KW3">
-        <v>0.3500000000000002</v>
-      </c>
-      <c r="KX3">
-        <v>-0.2416459451430248</v>
-      </c>
-      <c r="KY3">
-        <v>11</v>
-      </c>
-      <c r="KZ3">
-        <v>0.7058180050713464</v>
-      </c>
-      <c r="LA3">
-        <v>0</v>
-      </c>
-      <c r="LB3">
-        <v>0.08295446410272198</v>
-      </c>
-      <c r="LC3">
-        <v>-0.2496308524013262</v>
-      </c>
-      <c r="LD3">
-        <v>8</v>
-      </c>
-      <c r="LE3">
-        <v>2.798284853931865</v>
-      </c>
-      <c r="LF3">
-        <v>0</v>
-      </c>
-      <c r="LG3">
-        <v>0.1162012776181635</v>
-      </c>
-      <c r="LH3">
-        <v>1</v>
-      </c>
       <c r="LI3">
-        <v>1.5</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="LJ3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="LK3">
-        <v>1.121527455157478</v>
+        <v>1.110628301360945</v>
       </c>
       <c r="LL3">
         <v>0</v>
@@ -3615,145 +3787,133 @@
         <v>0</v>
       </c>
       <c r="LR3">
-        <v>0.401519036852237</v>
+        <v>0.539538850733858</v>
       </c>
       <c r="LS3">
         <v>1</v>
       </c>
       <c r="LT3">
-        <v>1.563027030682485</v>
+        <v>1.708814059314089</v>
       </c>
       <c r="LU3">
-        <v>1.002781685273891</v>
+        <v>1.001388910880474</v>
       </c>
       <c r="LV3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="LW3">
-        <v>2.364501986521656</v>
+        <v>2.364501986521657</v>
       </c>
       <c r="LX3">
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.075356272676226</v>
+        <v>1.076096934639342</v>
       </c>
       <c r="LZ3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="MA3">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="MB3">
-        <v>12.74322808606552</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="MC3">
-        <v>12.74322808606552</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="MD3">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="ME3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="MF3">
         <v>0.7666666666666667</v>
       </c>
       <c r="MG3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="MH3">
-        <v>0.6416666666666677</v>
+        <v>0.6269230769230769</v>
       </c>
       <c r="MI3">
         <v>0.2333333333333333</v>
       </c>
       <c r="MJ3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="MK3">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="ML3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="MM3">
-        <v>0.3583333333333329</v>
+        <v>0.3730769230769233</v>
       </c>
       <c r="MN3">
-        <v>-0.4364357804719606</v>
+        <v>-0.4008918628685922</v>
       </c>
       <c r="MO3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="MP3">
-        <v>0.6987111546685835</v>
+        <v>0.5968311473996238</v>
       </c>
       <c r="MQ3">
         <v>0</v>
       </c>
       <c r="MR3">
-        <v>0.009823730814353596</v>
+        <v>0.05702688560294011</v>
       </c>
       <c r="MS3">
-        <v>-0.05115125100218521</v>
+        <v>-0.3069759370646139</v>
       </c>
       <c r="MT3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="MU3">
-        <v>2.503052638096705</v>
+        <v>2.138079187680217</v>
       </c>
       <c r="MV3">
         <v>0</v>
       </c>
       <c r="MW3">
-        <v>0.03175801479683973</v>
+        <v>0.0956035692101129</v>
       </c>
       <c r="MX3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="MY3">
-        <v>1.25</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="MZ3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="NA3">
-        <v>1.042775329043518</v>
+        <v>1.090926107155012</v>
       </c>
       <c r="NB3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="NC3">
-        <v>1</v>
-      </c>
-      <c r="ND3">
-        <v>140</v>
-      </c>
-      <c r="NE3">
-        <v>0</v>
-      </c>
-      <c r="NF3">
-        <v>1</v>
-      </c>
-      <c r="NG3">
         <v>0</v>
       </c>
       <c r="NH3">
-        <v>0.6245613930878242</v>
+        <v>0.5221822051429866</v>
       </c>
       <c r="NI3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="NJ3">
-        <v>1.55518299277541</v>
+        <v>1.626740105357188</v>
       </c>
       <c r="NK3">
-        <v>1.002074661895014</v>
+        <v>1.000414244844608</v>
       </c>
       <c r="NL3">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="NM3">
         <v>2.227027837808698</v>
@@ -3762,145 +3922,157 @@
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.018447609872964</v>
+        <v>1.04398140425614</v>
       </c>
       <c r="NP3">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="NQ3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="NR3">
-        <v>12.90351816301735</v>
+        <v>12.87129965752215</v>
       </c>
       <c r="NS3">
-        <v>12.90351816301735</v>
+        <v>12.87129965752215</v>
       </c>
       <c r="NT3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="NU3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NV3">
         <v>0.7333333333333333</v>
       </c>
       <c r="NW3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="NX3">
-        <v>0.6472222222222223</v>
+        <v>0.6226190476190475</v>
       </c>
       <c r="NY3">
         <v>0.2666666666666667</v>
       </c>
       <c r="NZ3">
+        <v>7</v>
+      </c>
+      <c r="OA3">
+        <v>0.5</v>
+      </c>
+      <c r="OB3">
+        <v>2</v>
+      </c>
+      <c r="OC3">
+        <v>0.3773809523809525</v>
+      </c>
+      <c r="OD3">
+        <v>-0.2909571869813228</v>
+      </c>
+      <c r="OE3">
+        <v>16</v>
+      </c>
+      <c r="OF3">
+        <v>0.7709681419953053</v>
+      </c>
+      <c r="OG3">
+        <v>2</v>
+      </c>
+      <c r="OH3">
+        <v>0.07979333795957008</v>
+      </c>
+      <c r="OI3">
+        <v>-0.257398379535422</v>
+      </c>
+      <c r="OJ3">
+        <v>16</v>
+      </c>
+      <c r="OK3">
+        <v>2.541064423421466</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>0.1819547580911242</v>
+      </c>
+      <c r="ON3">
+        <v>2</v>
+      </c>
+      <c r="OO3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="OP3">
+        <v>12</v>
+      </c>
+      <c r="OQ3">
+        <v>1.046651623526824</v>
+      </c>
+      <c r="OR3">
+        <v>28</v>
+      </c>
+      <c r="OS3">
+        <v>19</v>
+      </c>
+      <c r="OT3">
+        <v>19</v>
+      </c>
+      <c r="OU3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="OV3">
+        <v>10</v>
+      </c>
+      <c r="OW3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="OX3">
+        <v>0.5285125840018581</v>
+      </c>
+      <c r="OY3">
+        <v>2</v>
+      </c>
+      <c r="OZ3">
+        <v>1.659282188039732</v>
+      </c>
+      <c r="PA3">
+        <v>1.010099915640719</v>
+      </c>
+      <c r="PB3">
+        <v>25</v>
+      </c>
+      <c r="PC3">
+        <v>2.464619084170234</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.082062404897342</v>
+      </c>
+      <c r="PF3">
+        <v>28</v>
+      </c>
+      <c r="PG3">
+        <v>0.5</v>
+      </c>
+      <c r="PH3">
         <v>5</v>
       </c>
-      <c r="OA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="OB3">
-        <v>0</v>
-      </c>
-      <c r="OC3">
-        <v>0.3527777777777778</v>
-      </c>
-      <c r="OD3">
-        <v>-0.2441028559242977</v>
-      </c>
-      <c r="OE3">
-        <v>4</v>
-      </c>
-      <c r="OF3">
-        <v>0.9489184889417221</v>
-      </c>
-      <c r="OG3">
-        <v>0</v>
-      </c>
-      <c r="OH3">
-        <v>0.1932522345100528</v>
-      </c>
-      <c r="OI3">
-        <v>-0.3629278927530741</v>
-      </c>
-      <c r="OJ3">
-        <v>4</v>
-      </c>
-      <c r="OK3">
-        <v>3.61505597052877</v>
-      </c>
-      <c r="OL3">
-        <v>0</v>
-      </c>
-      <c r="OM3">
-        <v>0.3377466820782809</v>
-      </c>
-      <c r="ON3">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="OO3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="OP3">
-        <v>6</v>
-      </c>
-      <c r="OQ3">
-        <v>1.397322525454224</v>
-      </c>
-      <c r="OR3">
-        <v>0</v>
-      </c>
-      <c r="OS3">
-        <v>0</v>
-      </c>
-      <c r="OX3">
-        <v>0.5112164836526708</v>
-      </c>
-      <c r="OY3">
-        <v>3</v>
-      </c>
-      <c r="OZ3">
-        <v>1.457932730905575</v>
-      </c>
-      <c r="PA3">
-        <v>1.01024430124188</v>
-      </c>
-      <c r="PB3">
-        <v>12</v>
-      </c>
-      <c r="PC3">
-        <v>2.464619084170235</v>
-      </c>
-      <c r="PD3">
-        <v>0</v>
-      </c>
-      <c r="PE3">
-        <v>1.113422794465445</v>
-      </c>
-      <c r="PF3">
-        <v>12</v>
-      </c>
-      <c r="PG3">
-        <v>0.7</v>
-      </c>
-      <c r="PH3">
-        <v>7</v>
-      </c>
       <c r="PI3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="PJ3">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="PK3">
-        <v>26.42857142857143</v>
+        <v>28.8</v>
       </c>
       <c r="PL3">
-        <v>13.605221086639</v>
+        <v>15.96746692496966</v>
       </c>
       <c r="PM3">
-        <v>0.3666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="PN3">
         <v>0</v>
@@ -3909,154 +4081,226 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="PP3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="PQ3">
-        <v>0.4619047619047619</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="PR3">
-        <v>0.7333333333333334</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="PS3">
-        <v>0.6317208912550527</v>
+        <v>0.6248193811608445</v>
       </c>
       <c r="PT3">
-        <v>0.05172752614857246</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="PU3">
-        <v>0.02519763153394852</v>
+        <v>0.04898979485566361</v>
       </c>
       <c r="PV3">
-        <v>0.01384427692673933</v>
+        <v>0.01743804304948153</v>
       </c>
       <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
       <c r="PX3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="PY3">
-        <v>0.6333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="PZ3">
         <v>0</v>
       </c>
       <c r="QA3">
-        <v>0.2666666666666667</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="QB3">
-        <v>0.5380952380952381</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="QC3">
-        <v>0.3682791087449474</v>
+        <v>0.3751806188391554</v>
       </c>
       <c r="QD3">
-        <v>0.02519763153394848</v>
+        <v>0.04898979485566356</v>
       </c>
       <c r="QE3">
-        <v>0.05172752614857244</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="QF3">
-        <v>0.01384427692673926</v>
+        <v>0.01743804304948153</v>
       </c>
       <c r="QG3">
-        <v>-0.301511344577761</v>
+        <v>-0.4008918628685922</v>
       </c>
       <c r="QH3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="QI3">
-        <v>1.331112309523567</v>
+        <v>0.9210866791696868</v>
       </c>
       <c r="QJ3">
         <v>0</v>
       </c>
       <c r="QK3">
-        <v>-0.1859865817609799</v>
+        <v>-0.2293824041849513</v>
       </c>
       <c r="QL3">
-        <v>0.8594240746038307</v>
+        <v>0.6964318089656649</v>
       </c>
       <c r="QM3">
-        <v>0.1440340745601538</v>
+        <v>0.1272300857100034</v>
       </c>
       <c r="QN3">
-        <v>0.1205021261204545</v>
+        <v>0.1294512489788815</v>
       </c>
       <c r="QO3">
-        <v>0.2771359123615238</v>
+        <v>0.15851238055078</v>
       </c>
       <c r="QP3">
-        <v>0.07967467399671466</v>
+        <v>0.04894309602181999</v>
       </c>
       <c r="QQ3">
-        <v>-0.3629278927530741</v>
+        <v>-0.4512761059702921</v>
       </c>
       <c r="QR3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="QS3">
-        <v>5.142234990415643</v>
+        <v>3.558260348841177</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-0.1505890620682873</v>
+        <v>-0.2363876783209957</v>
       </c>
       <c r="QV3">
-        <v>3.113724104230941</v>
+        <v>2.495290298574713</v>
       </c>
       <c r="QW3">
-        <v>0.2592604396277233</v>
+        <v>0.2496630577662582</v>
       </c>
       <c r="QX3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="QY3">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="QZ3">
-        <v>1.521428571428571</v>
+        <v>2.044444444444444</v>
       </c>
       <c r="RA3">
-        <v>1.214285714285714</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="RB3">
-        <v>2.142857142857143</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="RC3">
-        <v>1.581484388627246</v>
+        <v>1.269230769230769</v>
       </c>
       <c r="RD3">
-        <v>1.103802218131759</v>
+        <v>1.090926107155012</v>
       </c>
       <c r="RE3">
-        <v>1.416413807886822</v>
+        <v>1.398951924590593</v>
       </c>
       <c r="RF3">
-        <v>1.239574326910607</v>
+        <v>1.21268348472377</v>
       </c>
       <c r="RG3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="RH3">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="RI3">
-        <v>66</v>
+        <v>40.2</v>
       </c>
       <c r="RJ3">
-        <v>53.10994884827763</v>
+        <v>23.65924766344019</v>
       </c>
       <c r="RK3">
-        <v>12.79655125188746</v>
+        <v>11.99581392994397</v>
       </c>
       <c r="RL3">
-        <v>0.05443566557333544</v>
+        <v>1.344988520290807</v>
       </c>
       <c r="RM3">
         <v>12.87129965752215</v>
+      </c>
+      <c r="RR3">
+        <v>39</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.4808392391342982</v>
+      </c>
+      <c r="RX3">
+        <v>0.539538850733858</v>
+      </c>
+      <c r="RY3">
+        <v>0.5127474238467219</v>
+      </c>
+      <c r="RZ3">
+        <v>0.02252258167593717</v>
+      </c>
+      <c r="SA3">
+        <v>1</v>
+      </c>
+      <c r="SB3">
+        <v>3</v>
+      </c>
+      <c r="SC3">
+        <v>2</v>
+      </c>
+      <c r="SD3">
+        <v>0.8944271909999159</v>
+      </c>
+      <c r="SE3">
+        <v>1.000414244844608</v>
+      </c>
+      <c r="SF3">
+        <v>39</v>
+      </c>
+      <c r="SG3">
+        <v>2.930808944634442</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.004242771869256</v>
+      </c>
+      <c r="SJ3">
+        <v>2.426391647255685</v>
+      </c>
+      <c r="SK3">
+        <v>1.119603614210325</v>
+      </c>
+      <c r="SL3">
+        <v>0.003576791529896815</v>
+      </c>
+      <c r="SM3">
+        <v>0.2582377651792833</v>
+      </c>
+      <c r="SN3">
+        <v>0.06272247989728696</v>
+      </c>
+      <c r="SO3">
+        <v>1.582881040834502</v>
+      </c>
+      <c r="SP3">
+        <v>1.708814059314089</v>
+      </c>
+      <c r="SQ3">
+        <v>1.641391201488537</v>
+      </c>
+      <c r="SR3">
+        <v>0.04312039520747741</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +4315,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
